--- a/LoadRunner/Документация/WebTours_Профиль_нагрузки.xlsx
+++ b/LoadRunner/Документация/WebTours_Профиль_нагрузки.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="492" windowWidth="23256" windowHeight="13176" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="492" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="95">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -305,27 +305,6 @@
   </si>
   <si>
     <t>Поиск максимума 5 ступень</t>
-  </si>
-  <si>
-    <t>1 718</t>
-  </si>
-  <si>
-    <t>1 888</t>
-  </si>
-  <si>
-    <t>1 664</t>
-  </si>
-  <si>
-    <t>3 107</t>
-  </si>
-  <si>
-    <t>2 551</t>
-  </si>
-  <si>
-    <t>1 834</t>
-  </si>
-  <si>
-    <t>1 055</t>
   </si>
 </sst>
 </file>
@@ -336,12 +315,20 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1179,81 +1166,125 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1261,18 +1292,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1287,34 +1318,34 @@
     <xf numFmtId="165" fontId="0" fillId="41" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1326,18 +1357,18 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -1347,37 +1378,39 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="67"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="70"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1388,43 +1421,79 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="111">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Акцент1 2" xfId="49"/>
+    <cellStyle name="20% - Акцент1 3" xfId="75"/>
+    <cellStyle name="20% - Акцент1 4" xfId="74"/>
     <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Акцент2 2" xfId="52"/>
+    <cellStyle name="20% - Акцент2 3" xfId="78"/>
+    <cellStyle name="20% - Акцент2 4" xfId="96"/>
     <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - Акцент3 2" xfId="55"/>
+    <cellStyle name="20% - Акцент3 3" xfId="81"/>
+    <cellStyle name="20% - Акцент3 4" xfId="99"/>
     <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - Акцент4 2" xfId="58"/>
+    <cellStyle name="20% - Акцент4 3" xfId="84"/>
+    <cellStyle name="20% - Акцент4 4" xfId="102"/>
     <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - Акцент5 2" xfId="61"/>
+    <cellStyle name="20% - Акцент5 3" xfId="88"/>
+    <cellStyle name="20% - Акцент5 4" xfId="105"/>
     <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - Акцент6 2" xfId="64"/>
+    <cellStyle name="20% - Акцент6 3" xfId="91"/>
+    <cellStyle name="20% - Акцент6 4" xfId="108"/>
     <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - Акцент1 2" xfId="50"/>
+    <cellStyle name="40% - Акцент1 3" xfId="76"/>
+    <cellStyle name="40% - Акцент1 4" xfId="94"/>
     <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - Акцент2 2" xfId="53"/>
+    <cellStyle name="40% - Акцент2 3" xfId="79"/>
+    <cellStyle name="40% - Акцент2 4" xfId="97"/>
     <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - Акцент3 2" xfId="56"/>
+    <cellStyle name="40% - Акцент3 3" xfId="82"/>
+    <cellStyle name="40% - Акцент3 4" xfId="100"/>
     <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Акцент4 2" xfId="59"/>
+    <cellStyle name="40% - Акцент4 3" xfId="85"/>
+    <cellStyle name="40% - Акцент4 4" xfId="103"/>
     <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Акцент5 2" xfId="62"/>
+    <cellStyle name="40% - Акцент5 3" xfId="89"/>
+    <cellStyle name="40% - Акцент5 4" xfId="106"/>
     <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - Акцент6 2" xfId="65"/>
+    <cellStyle name="40% - Акцент6 3" xfId="92"/>
+    <cellStyle name="40% - Акцент6 4" xfId="109"/>
     <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Акцент1 2" xfId="51"/>
+    <cellStyle name="60% - Акцент1 3" xfId="77"/>
+    <cellStyle name="60% - Акцент1 4" xfId="95"/>
     <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Акцент2 2" xfId="54"/>
+    <cellStyle name="60% - Акцент2 3" xfId="80"/>
+    <cellStyle name="60% - Акцент2 4" xfId="98"/>
     <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - Акцент3 2" xfId="57"/>
+    <cellStyle name="60% - Акцент3 3" xfId="83"/>
+    <cellStyle name="60% - Акцент3 4" xfId="101"/>
     <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Акцент4 2" xfId="60"/>
+    <cellStyle name="60% - Акцент4 3" xfId="86"/>
+    <cellStyle name="60% - Акцент4 4" xfId="104"/>
     <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Акцент5 2" xfId="63"/>
+    <cellStyle name="60% - Акцент5 3" xfId="90"/>
+    <cellStyle name="60% - Акцент5 4" xfId="107"/>
     <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - Акцент6 2" xfId="66"/>
+    <cellStyle name="60% - Акцент6 3" xfId="93"/>
+    <cellStyle name="60% - Акцент6 4" xfId="110"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1442,16 +1511,24 @@
     <cellStyle name="Контрольная ячейка" xfId="14" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Название" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Название 2" xfId="46"/>
+    <cellStyle name="Название 3" xfId="68"/>
+    <cellStyle name="Название 4" xfId="72"/>
     <cellStyle name="Нейтральный" xfId="3" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Нейтральный 2" xfId="47"/>
+    <cellStyle name="Нейтральный 3" xfId="71"/>
+    <cellStyle name="Нейтральный 4" xfId="69"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="4"/>
     <cellStyle name="Обычный 3" xfId="42"/>
     <cellStyle name="Обычный 4" xfId="45"/>
+    <cellStyle name="Обычный 5" xfId="67"/>
+    <cellStyle name="Обычный 6" xfId="70"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 2" xfId="43"/>
     <cellStyle name="Примечание 3" xfId="48"/>
+    <cellStyle name="Примечание 4" xfId="73"/>
+    <cellStyle name="Примечание 5" xfId="87"/>
     <cellStyle name="Процентный" xfId="44" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
@@ -1463,7 +1540,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Гульнара" refreshedDate="44760.777677546299" createdVersion="6" refreshedVersion="3" minRefreshableVersion="3" recordCount="29">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Гульнара" refreshedDate="44768.69821412037" createdVersion="6" refreshedVersion="3" minRefreshableVersion="3" recordCount="29">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H30" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -2161,7 +2238,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2171,8 +2248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -3423,10 +3500,10 @@
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1"/>
     <row r="33" spans="1:9">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="66"/>
+      <c r="B33" s="68"/>
     </row>
     <row r="34" spans="1:9" ht="108">
       <c r="A34" s="29" t="s">
@@ -3479,11 +3556,11 @@
       </c>
       <c r="G35" s="10">
         <f>VLOOKUP(E35,SummaryReport!A:J,8,FALSE)</f>
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H35" s="13">
         <f t="shared" ref="H35:H46" si="45">1-F35/G35</f>
-        <v>2.4481256424313536E-2</v>
+        <v>-8.9651004982813642E-3</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18">
@@ -3511,11 +3588,11 @@
       </c>
       <c r="G36" s="10">
         <f>VLOOKUP(E36,SummaryReport!A:J,8,FALSE)</f>
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H36" s="13">
         <f t="shared" si="45"/>
-        <v>2.6913119337059088E-2</v>
+        <v>-6.8746195748485839E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="54">
@@ -3543,11 +3620,11 @@
       </c>
       <c r="G37" s="10">
         <f>VLOOKUP(E37,SummaryReport!A:J,8,FALSE)</f>
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" si="45"/>
-        <v>3.2304615828643191E-2</v>
+        <v>-3.8709125515945519E-3</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="36">
@@ -3575,11 +3652,11 @@
       </c>
       <c r="G38" s="10">
         <f>VLOOKUP(E38,SummaryReport!A:J,8,FALSE)</f>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H38" s="13">
         <f t="shared" si="45"/>
-        <v>3.2830523513753374E-2</v>
+        <v>2.2883295194507935E-3</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="36">
@@ -3607,11 +3684,11 @@
       </c>
       <c r="G39" s="10">
         <f>VLOOKUP(E39,SummaryReport!A:J,8,FALSE)</f>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H39" s="13">
         <f t="shared" si="45"/>
-        <v>3.2830523513753374E-2</v>
+        <v>2.2883295194507935E-3</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18">
@@ -3639,11 +3716,11 @@
       </c>
       <c r="G40" s="10">
         <f>VLOOKUP(E40,SummaryReport!A:J,8,FALSE)</f>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H40" s="13">
         <f t="shared" si="45"/>
-        <v>3.2258064516129004E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="36">
@@ -3671,11 +3748,11 @@
       </c>
       <c r="G41" s="10">
         <f>VLOOKUP(E41,SummaryReport!A:J,8,FALSE)</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H41" s="13">
         <f t="shared" si="45"/>
-        <v>2.4242424242424176E-2</v>
+        <v>-5.9356451109029429E-3</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="36">
@@ -3715,7 +3792,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="31">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C43" s="15">
         <f t="shared" si="46"/>
@@ -3723,7 +3800,7 @@
       </c>
       <c r="D43" s="12">
         <f t="shared" si="48"/>
-        <v>-4.2760942760942777E-2</v>
+        <v>-3.3164983164983175E-2</v>
       </c>
       <c r="E43" s="51" t="str">
         <f>VLOOKUP(A43,Соответствие!A10:B21,2,FALSE)</f>
@@ -3735,11 +3812,11 @@
       </c>
       <c r="G43" s="10">
         <f>VLOOKUP(E43,SummaryReport!A:J,8,FALSE)</f>
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H43" s="13">
         <f t="shared" si="45"/>
-        <v>2.6069847515986178E-2</v>
+        <v>-1.1752682677567794E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="54">
@@ -3767,11 +3844,11 @@
       </c>
       <c r="G44" s="10">
         <f>VLOOKUP(E44,SummaryReport!A:J,8,FALSE)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H44" s="13">
         <f t="shared" si="45"/>
-        <v>1.3157894736842035E-2</v>
+        <v>-1.8675721561969505E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="36">
@@ -3799,11 +3876,11 @@
       </c>
       <c r="G45" s="10">
         <f>VLOOKUP(E45,SummaryReport!A:J,8,FALSE)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H45" s="13">
         <f t="shared" si="45"/>
-        <v>1.3157894736842035E-2</v>
+        <v>-1.8675721561969505E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="54">
@@ -3831,11 +3908,11 @@
       </c>
       <c r="G46" s="10">
         <f>VLOOKUP(E46,SummaryReport!A:J,8,FALSE)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46" s="13">
         <f t="shared" si="45"/>
-        <v>1.3157894736842035E-2</v>
+        <v>-1.8675721561969505E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18.600000000000001" thickBot="1">
@@ -3844,7 +3921,7 @@
       </c>
       <c r="B47" s="34">
         <f>SUM(B35:B46)</f>
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="C47" s="14">
         <f>SUM(C35:C46)</f>
@@ -3852,7 +3929,7 @@
       </c>
       <c r="D47" s="12">
         <f t="shared" si="48"/>
-        <v>1.7982979621066431E-2</v>
+        <v>1.8983676313028663E-2</v>
       </c>
       <c r="E47" s="51"/>
       <c r="F47" s="10"/>
@@ -4215,8 +4292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35:H46"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4257,386 +4334,386 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="s">
+      <c r="A3" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="C3">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="D3">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="E3">
-        <v>1.268</v>
-      </c>
-      <c r="F3">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="G3">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="C3" s="65">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="D3" s="65">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="E3" s="65">
+        <v>1.76</v>
+      </c>
+      <c r="F3" s="65">
+        <v>0.376</v>
+      </c>
+      <c r="G3" s="65">
+        <v>1.43</v>
+      </c>
+      <c r="H3" s="65">
+        <v>97</v>
+      </c>
+      <c r="I3" s="65">
+        <v>0</v>
+      </c>
+      <c r="J3" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="s">
+      <c r="A4" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="C4">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="D4">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="F4">
-        <v>1.2E-2</v>
-      </c>
-      <c r="G4">
-        <v>0.182</v>
-      </c>
-      <c r="H4">
-        <v>111</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="C4" s="65">
+        <v>0.151</v>
+      </c>
+      <c r="D4" s="65">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E4" s="65">
+        <v>0.48</v>
+      </c>
+      <c r="F4" s="65">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G4" s="65">
+        <v>0.193</v>
+      </c>
+      <c r="H4" s="65">
+        <v>107</v>
+      </c>
+      <c r="I4" s="65">
+        <v>0</v>
+      </c>
+      <c r="J4" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" t="s">
+      <c r="A5" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="C5">
-        <v>0.128</v>
-      </c>
-      <c r="D5">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="65">
+        <v>0.123</v>
+      </c>
+      <c r="D5" s="65">
+        <v>0.155</v>
+      </c>
+      <c r="E5" s="65">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="F5" s="65">
+        <v>0.03</v>
+      </c>
+      <c r="G5" s="65">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="H5" s="65">
+        <v>31</v>
+      </c>
+      <c r="I5" s="65">
+        <v>0</v>
+      </c>
+      <c r="J5" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="65">
+        <v>0.53</v>
+      </c>
+      <c r="D6" s="65">
+        <v>0.625</v>
+      </c>
+      <c r="E6" s="65">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="F6" s="65">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G6" s="65">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="H6" s="65">
+        <v>24</v>
+      </c>
+      <c r="I6" s="65">
+        <v>0</v>
+      </c>
+      <c r="J6" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="65">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D7" s="65">
+        <v>0.151</v>
+      </c>
+      <c r="E7" s="65">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="F7" s="65">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G7" s="65">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H7" s="65">
+        <v>95</v>
+      </c>
+      <c r="I7" s="65">
+        <v>0</v>
+      </c>
+      <c r="J7" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="65">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D8" s="65">
+        <v>0.159</v>
+      </c>
+      <c r="E8" s="65">
+        <v>0.32</v>
+      </c>
+      <c r="F8" s="65">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G8" s="65">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="H8" s="65">
+        <v>175</v>
+      </c>
+      <c r="I8" s="65">
+        <v>0</v>
+      </c>
+      <c r="J8" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="65">
+        <v>0.19</v>
+      </c>
+      <c r="D9" s="65">
+        <v>0.223</v>
+      </c>
+      <c r="E9" s="65">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F9" s="65">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G9" s="65">
+        <v>0.24</v>
+      </c>
+      <c r="H9" s="65">
+        <v>144</v>
+      </c>
+      <c r="I9" s="65">
+        <v>0</v>
+      </c>
+      <c r="J9" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="65">
+        <v>0.124</v>
+      </c>
+      <c r="D10" s="65">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E10" s="65">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="F10" s="65">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G10" s="65">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="H10" s="65">
+        <v>103</v>
+      </c>
+      <c r="I10" s="65">
+        <v>0</v>
+      </c>
+      <c r="J10" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="65">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D11" s="65">
+        <v>0.152</v>
+      </c>
+      <c r="E11" s="65">
+        <v>0.17</v>
+      </c>
+      <c r="F11" s="65">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G11" s="65">
         <v>0.16400000000000001</v>
       </c>
-      <c r="F5">
+      <c r="H11" s="65">
+        <v>60</v>
+      </c>
+      <c r="I11" s="65">
+        <v>0</v>
+      </c>
+      <c r="J11" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="65">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D12" s="65">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="E12" s="65">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="F12" s="65">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G12" s="65">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="H12" s="65">
+        <v>31</v>
+      </c>
+      <c r="I12" s="65">
+        <v>0</v>
+      </c>
+      <c r="J12" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="65">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="D13" s="65">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="E13" s="65">
+        <v>0.253</v>
+      </c>
+      <c r="F13" s="65">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G13" s="65">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="H13" s="65">
+        <v>31</v>
+      </c>
+      <c r="I13" s="65">
+        <v>0</v>
+      </c>
+      <c r="J13" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="65">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D14" s="65">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E14" s="65">
+        <v>0.115</v>
+      </c>
+      <c r="F14" s="65">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G5">
-        <v>0.159</v>
-      </c>
-      <c r="H5">
-        <v>32</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="D6">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="E6">
-        <v>0.11</v>
-      </c>
-      <c r="F6">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G6">
-        <v>0.104</v>
-      </c>
-      <c r="H6">
-        <v>24</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7">
-        <v>0.127</v>
-      </c>
-      <c r="D7">
-        <v>0.152</v>
-      </c>
-      <c r="E7">
-        <v>0.183</v>
-      </c>
-      <c r="F7">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G7">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="H7">
-        <v>98</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="D8">
-        <v>0.155</v>
-      </c>
-      <c r="E8">
-        <v>0.222</v>
-      </c>
-      <c r="F8">
-        <v>1.2E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="H8">
-        <v>181</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9">
-        <v>0.184</v>
-      </c>
-      <c r="D9">
-        <v>0.218</v>
-      </c>
-      <c r="E9">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="F9">
-        <v>1.4E-2</v>
-      </c>
-      <c r="G9">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="H9">
-        <v>149</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10">
-        <v>0.122</v>
-      </c>
-      <c r="D10">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="E10">
-        <v>0.192</v>
-      </c>
-      <c r="F10">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G10">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="H10">
-        <v>107</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11">
-        <v>0.127</v>
-      </c>
-      <c r="D11">
-        <v>0.153</v>
-      </c>
-      <c r="E11">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="F11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G11">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="H11">
-        <v>62</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12">
-        <v>0.104</v>
-      </c>
-      <c r="D12">
-        <v>0.129</v>
-      </c>
-      <c r="E12">
-        <v>0.154</v>
-      </c>
-      <c r="F12">
-        <v>1.4E-2</v>
-      </c>
-      <c r="G12">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="H12">
-        <v>32</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="D13">
-        <v>0.222</v>
-      </c>
-      <c r="E13">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="F13">
-        <v>1.9E-2</v>
-      </c>
-      <c r="G13">
-        <v>0.246</v>
-      </c>
-      <c r="H13">
-        <v>32</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D14">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="E14">
-        <v>0.115</v>
-      </c>
-      <c r="F14">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G14">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="H14">
-        <v>98</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
+      <c r="G14" s="65">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="65">
+        <v>95</v>
+      </c>
+      <c r="I14" s="65">
+        <v>0</v>
+      </c>
+      <c r="J14" s="65">
         <v>0</v>
       </c>
     </row>
@@ -4673,386 +4750,386 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" t="s">
+      <c r="A19" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C19">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="D19">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="E19">
-        <v>4.7949999999999999</v>
-      </c>
-      <c r="F19">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="G19">
-        <v>1.6359999999999999</v>
-      </c>
-      <c r="H19" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
+      <c r="C19" s="66">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D19" s="66">
+        <v>1.7769999999999999</v>
+      </c>
+      <c r="E19" s="66">
+        <v>52.459000000000003</v>
+      </c>
+      <c r="F19" s="66">
+        <v>4.1239999999999997</v>
+      </c>
+      <c r="G19" s="66">
+        <v>2.492</v>
+      </c>
+      <c r="H19" s="66">
+        <v>1717</v>
+      </c>
+      <c r="I19" s="66">
+        <v>1</v>
+      </c>
+      <c r="J19" s="66">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" t="s">
+      <c r="A20" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C20">
-        <v>0.15</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="66">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D20" s="66">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E20" s="66">
+        <v>28.887</v>
+      </c>
+      <c r="F20" s="66">
+        <v>2.1850000000000001</v>
+      </c>
+      <c r="G20" s="66">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="H20" s="66">
+        <v>1890</v>
+      </c>
+      <c r="I20" s="66">
+        <v>0</v>
+      </c>
+      <c r="J20" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="66">
+        <v>0.112</v>
+      </c>
+      <c r="D21" s="66">
+        <v>0.39</v>
+      </c>
+      <c r="E21" s="66">
+        <v>13.4</v>
+      </c>
+      <c r="F21" s="66">
+        <v>1.359</v>
+      </c>
+      <c r="G21" s="66">
         <v>0.21299999999999999</v>
       </c>
-      <c r="E20">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="F20">
-        <v>0.06</v>
-      </c>
-      <c r="G20">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="H20" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="H21" s="66">
+        <v>551</v>
+      </c>
+      <c r="I21" s="66">
+        <v>0</v>
+      </c>
+      <c r="J21" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C21">
-        <v>0.111</v>
-      </c>
-      <c r="D21">
-        <v>0.16</v>
-      </c>
-      <c r="E21">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="F21">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="G21">
-        <v>0.188</v>
-      </c>
-      <c r="H21" s="63">
-        <v>555</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22" s="66">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D22" s="66">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E22" s="66">
+        <v>11.215</v>
+      </c>
+      <c r="F22" s="66">
+        <v>1.27</v>
+      </c>
+      <c r="G22" s="66">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="H22" s="66">
+        <v>418</v>
+      </c>
+      <c r="I22" s="66">
+        <v>12</v>
+      </c>
+      <c r="J22" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C22">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="D22">
-        <v>0.104</v>
-      </c>
-      <c r="E22">
-        <v>0.317</v>
-      </c>
-      <c r="F22">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="G22">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="H22" s="63">
-        <v>428</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23" s="66">
+        <v>0.123</v>
+      </c>
+      <c r="D23" s="66">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="E23" s="66">
+        <v>21.018000000000001</v>
+      </c>
+      <c r="F23" s="66">
+        <v>1.091</v>
+      </c>
+      <c r="G23" s="66">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="H23" s="66">
+        <v>1666</v>
+      </c>
+      <c r="I23" s="66">
+        <v>0</v>
+      </c>
+      <c r="J23" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C23">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D23">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="E23">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="F23">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="G23">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="H23" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C24" s="66">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D24" s="66">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="E24" s="66">
+        <v>32.509</v>
+      </c>
+      <c r="F24" s="66">
+        <v>3.0270000000000001</v>
+      </c>
+      <c r="G24" s="66">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="H24" s="66">
+        <v>3109</v>
+      </c>
+      <c r="I24" s="66">
+        <v>0</v>
+      </c>
+      <c r="J24" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C24">
-        <v>0.125</v>
-      </c>
-      <c r="D24">
-        <v>0.188</v>
-      </c>
-      <c r="E24">
-        <v>1.3109999999999999</v>
-      </c>
-      <c r="F24">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="G24">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="H24" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C25" s="66">
+        <v>0.183</v>
+      </c>
+      <c r="D25" s="66">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="E25" s="66">
+        <v>29.841999999999999</v>
+      </c>
+      <c r="F25" s="66">
+        <v>2.9049999999999998</v>
+      </c>
+      <c r="G25" s="66">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="H25" s="66">
+        <v>2558</v>
+      </c>
+      <c r="I25" s="66">
+        <v>0</v>
+      </c>
+      <c r="J25" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C25">
-        <v>0.186</v>
-      </c>
-      <c r="D25">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="E25">
-        <v>2.2770000000000001</v>
-      </c>
-      <c r="F25">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="G25">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="H25" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" s="66">
+        <v>0.124</v>
+      </c>
+      <c r="D26" s="66">
+        <v>0.379</v>
+      </c>
+      <c r="E26" s="66">
+        <v>28.244</v>
+      </c>
+      <c r="F26" s="66">
+        <v>1.609</v>
+      </c>
+      <c r="G26" s="66">
+        <v>0.219</v>
+      </c>
+      <c r="H26" s="66">
+        <v>1827</v>
+      </c>
+      <c r="I26" s="66">
+        <v>0</v>
+      </c>
+      <c r="J26" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C26">
-        <v>0.122</v>
-      </c>
-      <c r="D26">
-        <v>0.16</v>
-      </c>
-      <c r="E26">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="F26">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="G26">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="H26" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" s="66">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D27" s="66">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="E27" s="66">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="F27" s="66">
+        <v>1.2350000000000001</v>
+      </c>
+      <c r="G27" s="66">
+        <v>0.221</v>
+      </c>
+      <c r="H27" s="66">
+        <v>1052</v>
+      </c>
+      <c r="I27" s="66">
+        <v>0</v>
+      </c>
+      <c r="J27" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C27">
-        <v>0.104</v>
-      </c>
-      <c r="D27">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="E27">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="F27">
-        <v>0.04</v>
-      </c>
-      <c r="G27">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="H27" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" s="66">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D28" s="66">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="E28" s="66">
+        <v>16.477</v>
+      </c>
+      <c r="F28" s="66">
+        <v>1.34</v>
+      </c>
+      <c r="G28" s="66">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="H28" s="66">
+        <v>551</v>
+      </c>
+      <c r="I28" s="66">
+        <v>0</v>
+      </c>
+      <c r="J28" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C28">
-        <v>0.09</v>
-      </c>
-      <c r="D28">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="E28">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="F28">
-        <v>2.7E-2</v>
-      </c>
-      <c r="G28">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="H28" s="63">
-        <v>555</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C29" s="66">
+        <v>0.189</v>
+      </c>
+      <c r="D29" s="66">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="E29" s="66">
+        <v>26.628</v>
+      </c>
+      <c r="F29" s="66">
+        <v>2.4529999999999998</v>
+      </c>
+      <c r="G29" s="66">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="H29" s="66">
+        <v>551</v>
+      </c>
+      <c r="I29" s="66">
+        <v>0</v>
+      </c>
+      <c r="J29" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C29">
-        <v>0.184</v>
-      </c>
-      <c r="D29">
-        <v>0.249</v>
-      </c>
-      <c r="E29">
-        <v>1.1659999999999999</v>
-      </c>
-      <c r="F29">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="G29">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="H29" s="63">
-        <v>555</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="D30">
-        <v>0.104</v>
-      </c>
-      <c r="E30">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="F30">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="G30">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="H30" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
+      <c r="C30" s="66">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D30" s="66">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="E30" s="66">
+        <v>17.936</v>
+      </c>
+      <c r="F30" s="66">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="G30" s="66">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="H30" s="66">
+        <v>1666</v>
+      </c>
+      <c r="I30" s="66">
+        <v>0</v>
+      </c>
+      <c r="J30" s="66">
         <v>0</v>
       </c>
     </row>
@@ -5096,22 +5173,22 @@
         <v>92</v>
       </c>
       <c r="C35">
-        <v>0.55900000000000005</v>
+        <v>0.183</v>
       </c>
       <c r="D35">
-        <v>1.91</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="E35">
-        <v>4.5199999999999996</v>
+        <v>61.076999999999998</v>
       </c>
       <c r="F35">
-        <v>0.90400000000000003</v>
+        <v>7.8680000000000003</v>
       </c>
       <c r="G35">
-        <v>3.2869999999999999</v>
+        <v>3.496</v>
       </c>
       <c r="H35">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -5128,22 +5205,22 @@
         <v>92</v>
       </c>
       <c r="C36">
-        <v>0.34699999999999998</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="D36">
-        <v>0.38400000000000001</v>
+        <v>1.099</v>
       </c>
       <c r="E36">
-        <v>0.68300000000000005</v>
+        <v>21.486999999999998</v>
       </c>
       <c r="F36">
-        <v>3.4000000000000002E-2</v>
+        <v>3.1640000000000001</v>
       </c>
       <c r="G36">
-        <v>0.41799999999999998</v>
+        <v>3.5539999999999998</v>
       </c>
       <c r="H36">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -5160,22 +5237,22 @@
         <v>92</v>
       </c>
       <c r="C37">
-        <v>0.23599999999999999</v>
+        <v>0.121</v>
       </c>
       <c r="D37">
-        <v>0.26</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="E37">
-        <v>0.39100000000000001</v>
+        <v>7.82</v>
       </c>
       <c r="F37">
-        <v>0.02</v>
+        <v>1.3959999999999999</v>
       </c>
       <c r="G37">
-        <v>0.27900000000000003</v>
+        <v>2.2010000000000001</v>
       </c>
       <c r="H37">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -5192,25 +5269,25 @@
         <v>92</v>
       </c>
       <c r="C38">
-        <v>0.21</v>
+        <v>7.8E-2</v>
       </c>
       <c r="D38">
-        <v>0.23</v>
+        <v>1.7270000000000001</v>
       </c>
       <c r="E38">
-        <v>0.28999999999999998</v>
+        <v>27.975999999999999</v>
       </c>
       <c r="F38">
-        <v>1.6E-2</v>
+        <v>4.1970000000000001</v>
       </c>
       <c r="G38">
-        <v>0.254</v>
+        <v>1.262</v>
       </c>
       <c r="H38">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -5224,22 +5301,22 @@
         <v>92</v>
       </c>
       <c r="C39">
-        <v>0.23699999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="D39">
-        <v>0.25800000000000001</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="E39">
-        <v>0.31</v>
+        <v>10.993</v>
       </c>
       <c r="F39">
-        <v>1.4999999999999999E-2</v>
+        <v>1.6180000000000001</v>
       </c>
       <c r="G39">
-        <v>0.28100000000000003</v>
+        <v>0.214</v>
       </c>
       <c r="H39">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -5256,22 +5333,22 @@
         <v>92</v>
       </c>
       <c r="C40">
-        <v>0.29199999999999998</v>
+        <v>0.129</v>
       </c>
       <c r="D40">
-        <v>0.34200000000000003</v>
+        <v>1.33</v>
       </c>
       <c r="E40">
-        <v>0.52800000000000002</v>
+        <v>20.942</v>
       </c>
       <c r="F40">
-        <v>3.1E-2</v>
+        <v>3.3889999999999998</v>
       </c>
       <c r="G40">
-        <v>0.376</v>
+        <v>4.923</v>
       </c>
       <c r="H40">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -5288,22 +5365,22 @@
         <v>92</v>
       </c>
       <c r="C41">
-        <v>0.37</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="D41">
-        <v>0.41499999999999998</v>
+        <v>1.25</v>
       </c>
       <c r="E41">
-        <v>0.57299999999999995</v>
+        <v>20.780999999999999</v>
       </c>
       <c r="F41">
-        <v>0.03</v>
+        <v>3.1070000000000002</v>
       </c>
       <c r="G41">
-        <v>0.45300000000000001</v>
+        <v>4.452</v>
       </c>
       <c r="H41">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -5320,22 +5397,22 @@
         <v>92</v>
       </c>
       <c r="C42">
-        <v>0.29899999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="D42">
-        <v>0.32</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="E42">
-        <v>0.45800000000000002</v>
+        <v>14.5</v>
       </c>
       <c r="F42">
-        <v>2.1999999999999999E-2</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="G42">
-        <v>0.34499999999999997</v>
+        <v>0.39</v>
       </c>
       <c r="H42">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -5352,22 +5429,22 @@
         <v>92</v>
       </c>
       <c r="C43">
-        <v>0.23899999999999999</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="D43">
-        <v>0.26</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="E43">
-        <v>0.34100000000000003</v>
+        <v>11.957000000000001</v>
       </c>
       <c r="F43">
-        <v>1.7999999999999999E-2</v>
+        <v>1.92</v>
       </c>
       <c r="G43">
-        <v>0.28199999999999997</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="H43">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -5384,22 +5461,22 @@
         <v>92</v>
       </c>
       <c r="C44">
-        <v>0.17399999999999999</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D44">
-        <v>0.19600000000000001</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="E44">
-        <v>0.248</v>
+        <v>11.2</v>
       </c>
       <c r="F44">
-        <v>1.2999999999999999E-2</v>
+        <v>1.929</v>
       </c>
       <c r="G44">
-        <v>0.21099999999999999</v>
+        <v>1.476</v>
       </c>
       <c r="H44">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -5416,22 +5493,22 @@
         <v>92</v>
       </c>
       <c r="C45">
-        <v>0.35299999999999998</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="D45">
-        <v>0.40400000000000003</v>
+        <v>1.327</v>
       </c>
       <c r="E45">
-        <v>0.59199999999999997</v>
+        <v>17.082999999999998</v>
       </c>
       <c r="F45">
-        <v>3.7999999999999999E-2</v>
+        <v>3.4870000000000001</v>
       </c>
       <c r="G45">
-        <v>0.45300000000000001</v>
+        <v>1.069</v>
       </c>
       <c r="H45">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -5448,22 +5525,22 @@
         <v>92</v>
       </c>
       <c r="C46">
-        <v>0.186</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D46">
-        <v>0.20100000000000001</v>
+        <v>0.503</v>
       </c>
       <c r="E46">
-        <v>0.26300000000000001</v>
+        <v>13.798</v>
       </c>
       <c r="F46">
-        <v>1.2999999999999999E-2</v>
+        <v>1.587</v>
       </c>
       <c r="G46">
-        <v>0.221</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="H46">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -5481,8 +5558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -5505,13 +5582,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:9">
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
     </row>
     <row r="5" spans="5:9">
       <c r="E5" s="53" t="s">
@@ -5532,78 +5609,78 @@
     </row>
     <row r="6" spans="5:9">
       <c r="E6" s="54" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G6" s="54">
-        <v>520</v>
+        <v>280</v>
       </c>
       <c r="H6" s="55">
-        <f>176.568892587199*3</f>
-        <v>529.70667776159701</v>
+        <f>SummaryReport!H3*3</f>
+        <v>291</v>
       </c>
       <c r="I6" s="56">
         <f t="shared" ref="I6:I17" si="0">1-G6/H6</f>
-        <v>1.8324627891449063E-2</v>
+        <v>3.7800687285223344E-2</v>
       </c>
     </row>
     <row r="7" spans="5:9">
       <c r="E7" s="54" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G7" s="54">
-        <v>422</v>
+        <v>305</v>
       </c>
       <c r="H7" s="55">
-        <f>144.98995*3</f>
-        <v>434.96984999999995</v>
+        <f>SummaryReport!H4*3</f>
+        <v>321</v>
       </c>
       <c r="I7" s="56">
         <f t="shared" si="0"/>
-        <v>2.9817813809393856E-2</v>
+        <v>4.9844236760124616E-2</v>
       </c>
     </row>
     <row r="8" spans="5:9">
       <c r="E8" s="54" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" s="54">
-        <v>305</v>
+        <v>97</v>
       </c>
       <c r="H8" s="55">
-        <f>107.4*3</f>
-        <v>322.20000000000005</v>
+        <f>SummaryReport!H5*3</f>
+        <v>93</v>
       </c>
       <c r="I8" s="56">
         <f t="shared" si="0"/>
-        <v>5.338299193047813E-2</v>
+        <v>-4.3010752688172005E-2</v>
       </c>
     </row>
     <row r="9" spans="5:9">
       <c r="E9" s="54" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="54">
         <v>73</v>
       </c>
-      <c r="G9" s="54">
-        <v>282</v>
-      </c>
       <c r="H9" s="55">
-        <f>94.7826086956522*3</f>
-        <v>284.34782608695662</v>
+        <f>SummaryReport!H6*3</f>
+        <v>72</v>
       </c>
       <c r="I9" s="56">
         <f t="shared" si="0"/>
-        <v>8.2568807339452599E-3</v>
+        <v>-1.388888888888884E-2</v>
       </c>
     </row>
     <row r="10" spans="5:9">
@@ -5617,145 +5694,159 @@
         <v>270</v>
       </c>
       <c r="H10" s="55">
-        <f>94.7826086956522*3</f>
-        <v>284.34782608695662</v>
+        <f>SummaryReport!H7*3</f>
+        <v>285</v>
       </c>
       <c r="I10" s="56">
         <f t="shared" si="0"/>
-        <v>5.0458715596330639E-2</v>
+        <v>5.2631578947368474E-2</v>
       </c>
     </row>
     <row r="11" spans="5:9">
       <c r="E11" s="54" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G11" s="54">
-        <v>175</v>
+        <v>520</v>
       </c>
       <c r="H11" s="55">
-        <f>60*3</f>
-        <v>180</v>
+        <f>SummaryReport!H8*3</f>
+        <v>525</v>
       </c>
       <c r="I11" s="56">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
+        <v>9.52380952380949E-3</v>
       </c>
     </row>
     <row r="12" spans="5:9">
       <c r="E12" s="54" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="G12" s="54">
-        <v>280</v>
+        <v>422</v>
       </c>
       <c r="H12" s="55">
-        <f>97.5757575757575*3</f>
-        <v>292.72727272727252</v>
+        <f>SummaryReport!H9*3</f>
+        <v>432</v>
       </c>
       <c r="I12" s="56">
         <f t="shared" si="0"/>
-        <v>4.3478260869564522E-2</v>
+        <v>2.314814814814814E-2</v>
       </c>
     </row>
     <row r="13" spans="5:9">
       <c r="E13" s="54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="54" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="G13" s="54">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="H13" s="55">
-        <f>24.2424242424242*3</f>
-        <v>72.727272727272606</v>
+        <f>SummaryReport!H10*3</f>
+        <v>309</v>
       </c>
       <c r="I13" s="56">
         <f t="shared" si="0"/>
-        <v>-3.7500000000016964E-3</v>
+        <v>-4.5307443365695699E-2</v>
       </c>
     </row>
     <row r="14" spans="5:9">
       <c r="E14" s="54" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="G14" s="54">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="H14" s="55">
-        <f>104.21052631579*3</f>
-        <v>312.63157894737003</v>
+        <f>SummaryReport!H11*3</f>
+        <v>180</v>
       </c>
       <c r="I14" s="56">
         <f t="shared" si="0"/>
-        <v>-4.2760942760937448E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="E15" s="54" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G15" s="54">
         <v>97</v>
       </c>
       <c r="H15" s="55">
-        <f>31.5789473684211*3</f>
-        <v>94.736842105263307</v>
+        <f>SummaryReport!H12*3</f>
+        <v>93</v>
       </c>
       <c r="I15" s="56">
         <f t="shared" si="0"/>
-        <v>-2.3888888888887294E-2</v>
+        <v>-4.3010752688172005E-2</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" s="54" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" s="54">
         <v>97</v>
       </c>
       <c r="H16" s="55">
-        <f>31.5789473684211*3</f>
-        <v>94.736842105263307</v>
+        <f>SummaryReport!H13*3</f>
+        <v>93</v>
       </c>
       <c r="I16" s="56">
         <f t="shared" si="0"/>
-        <v>-2.3888888888887294E-2</v>
+        <v>-4.3010752688172005E-2</v>
       </c>
     </row>
     <row r="17" spans="5:19">
       <c r="E17" s="54" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="F17" s="54" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G17" s="54">
-        <v>97</v>
+        <v>282</v>
       </c>
       <c r="H17" s="55">
-        <f>31.5789473684211*3</f>
-        <v>94.736842105263307</v>
+        <f>SummaryReport!H14*3</f>
+        <v>285</v>
       </c>
       <c r="I17" s="56">
         <f t="shared" si="0"/>
-        <v>-2.3888888888887294E-2</v>
+        <v>1.0526315789473717E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:19">
+      <c r="G18" s="64">
+        <f>SUM(G6:G17)</f>
+        <v>2941</v>
+      </c>
+      <c r="H18" s="64">
+        <f>SUM(H6:H17)</f>
+        <v>2979</v>
+      </c>
+      <c r="I18" s="60">
+        <f t="shared" ref="I18" si="1">1-G18/H18</f>
+        <v>1.2755958375293752E-2</v>
       </c>
     </row>
     <row r="19" spans="5:19">
@@ -5763,13 +5854,13 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="5:19">
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
       <c r="L20" s="5"/>
       <c r="M20" s="3"/>
     </row>
@@ -5797,81 +5888,85 @@
     </row>
     <row r="23" spans="5:19">
       <c r="E23" s="54" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F23" s="54" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G23" s="55">
-        <f>G6*5</f>
-        <v>2600</v>
+        <f t="shared" ref="G23:G34" si="2">G6*5</f>
+        <v>1400</v>
       </c>
       <c r="H23" s="59">
-        <v>3107</v>
+        <f>SummaryReport!H19</f>
+        <v>1717</v>
       </c>
       <c r="I23" s="60">
-        <f>1-G23/H23</f>
-        <v>0.16317991631799167</v>
+        <f t="shared" ref="I23:I34" si="3">1-G23/H23</f>
+        <v>0.18462434478741996</v>
       </c>
       <c r="S23" s="63"/>
     </row>
     <row r="24" spans="5:19">
       <c r="E24" s="54" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F24" s="54" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G24" s="55">
-        <f t="shared" ref="G24:G34" si="1">G7*5</f>
-        <v>2110</v>
+        <f t="shared" si="2"/>
+        <v>1525</v>
       </c>
       <c r="H24" s="59">
-        <v>2551</v>
+        <f>SummaryReport!H20</f>
+        <v>1890</v>
       </c>
       <c r="I24" s="60">
-        <f t="shared" ref="I24:I35" si="2">1-G24/H24</f>
-        <v>0.17287338298706389</v>
+        <f t="shared" si="3"/>
+        <v>0.19312169312169314</v>
       </c>
       <c r="S24" s="63"/>
     </row>
     <row r="25" spans="5:19">
       <c r="E25" s="54" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F25" s="54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G25" s="55">
-        <f t="shared" si="1"/>
-        <v>1525</v>
+        <f t="shared" si="2"/>
+        <v>485</v>
       </c>
       <c r="H25" s="59">
-        <v>1888</v>
+        <f>SummaryReport!H21</f>
+        <v>551</v>
       </c>
       <c r="I25" s="60">
-        <f t="shared" si="2"/>
-        <v>0.19226694915254239</v>
+        <f t="shared" si="3"/>
+        <v>0.11978221415607981</v>
       </c>
       <c r="S25" s="63"/>
     </row>
     <row r="26" spans="5:19">
       <c r="E26" s="54" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F26" s="54" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G26" s="55">
-        <f t="shared" si="1"/>
-        <v>1410</v>
+        <f t="shared" si="2"/>
+        <v>365</v>
       </c>
       <c r="H26" s="59">
-        <v>1664</v>
+        <f>SummaryReport!H22</f>
+        <v>418</v>
       </c>
       <c r="I26" s="60">
-        <f t="shared" si="2"/>
-        <v>0.15264423076923073</v>
+        <f t="shared" si="3"/>
+        <v>0.12679425837320579</v>
       </c>
       <c r="S26" s="63"/>
     </row>
@@ -5883,155 +5978,163 @@
         <v>74</v>
       </c>
       <c r="G27" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1350</v>
       </c>
       <c r="H27" s="59">
-        <v>1664</v>
+        <f>SummaryReport!H23</f>
+        <v>1666</v>
       </c>
       <c r="I27" s="60">
-        <f t="shared" si="2"/>
-        <v>0.18870192307692313</v>
+        <f t="shared" si="3"/>
+        <v>0.18967587034813926</v>
       </c>
       <c r="S27" s="63"/>
     </row>
     <row r="28" spans="5:19">
       <c r="E28" s="54" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="F28" s="54" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G28" s="55">
-        <f t="shared" si="1"/>
-        <v>875</v>
+        <f t="shared" si="2"/>
+        <v>2600</v>
       </c>
       <c r="H28" s="59">
-        <v>1055</v>
+        <f>SummaryReport!H24</f>
+        <v>3109</v>
       </c>
       <c r="I28" s="60">
-        <f t="shared" si="2"/>
-        <v>0.17061611374407581</v>
+        <f t="shared" si="3"/>
+        <v>0.16371823737536184</v>
       </c>
       <c r="S28" s="63"/>
     </row>
     <row r="29" spans="5:19">
       <c r="E29" s="54" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F29" s="54" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="G29" s="55">
-        <f t="shared" si="1"/>
-        <v>1400</v>
+        <f t="shared" si="2"/>
+        <v>2110</v>
       </c>
       <c r="H29" s="59">
-        <v>1718</v>
+        <f>SummaryReport!H25</f>
+        <v>2558</v>
       </c>
       <c r="I29" s="60">
-        <f t="shared" si="2"/>
-        <v>0.18509895227008144</v>
+        <f t="shared" si="3"/>
+        <v>0.17513682564503519</v>
       </c>
       <c r="S29" s="63"/>
     </row>
     <row r="30" spans="5:19">
       <c r="E30" s="54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30" s="54" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="G30" s="55">
-        <f t="shared" si="1"/>
-        <v>365</v>
+        <f t="shared" si="2"/>
+        <v>1615</v>
       </c>
       <c r="H30" s="59">
-        <v>428</v>
+        <f>SummaryReport!H26</f>
+        <v>1827</v>
       </c>
       <c r="I30" s="60">
-        <f t="shared" si="2"/>
-        <v>0.14719626168224298</v>
+        <f t="shared" si="3"/>
+        <v>0.11603721948549539</v>
       </c>
       <c r="S30" s="63"/>
     </row>
     <row r="31" spans="5:19">
       <c r="E31" s="54" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F31" s="54" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="G31" s="55">
-        <f t="shared" si="1"/>
-        <v>1630</v>
+        <f t="shared" si="2"/>
+        <v>875</v>
       </c>
       <c r="H31" s="59">
-        <v>1834</v>
+        <f>SummaryReport!H27</f>
+        <v>1052</v>
       </c>
       <c r="I31" s="60">
-        <f t="shared" si="2"/>
-        <v>0.11123227917121048</v>
+        <f t="shared" si="3"/>
+        <v>0.16825095057034223</v>
       </c>
       <c r="S31" s="63"/>
     </row>
     <row r="32" spans="5:19">
       <c r="E32" s="54" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F32" s="54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G32" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>485</v>
       </c>
       <c r="H32" s="59">
-        <v>555</v>
+        <f>SummaryReport!H28</f>
+        <v>551</v>
       </c>
       <c r="I32" s="60">
-        <f t="shared" si="2"/>
-        <v>0.12612612612612617</v>
+        <f t="shared" si="3"/>
+        <v>0.11978221415607981</v>
       </c>
       <c r="S32" s="63"/>
     </row>
     <row r="33" spans="5:19">
       <c r="E33" s="54" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F33" s="54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G33" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>485</v>
       </c>
       <c r="H33" s="59">
-        <v>555</v>
+        <f>SummaryReport!H29</f>
+        <v>551</v>
       </c>
       <c r="I33" s="60">
-        <f t="shared" si="2"/>
-        <v>0.12612612612612617</v>
+        <f t="shared" si="3"/>
+        <v>0.11978221415607981</v>
       </c>
       <c r="S33" s="63"/>
     </row>
     <row r="34" spans="5:19">
       <c r="E34" s="54" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="F34" s="54" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G34" s="55">
-        <f t="shared" si="1"/>
-        <v>485</v>
+        <f t="shared" si="2"/>
+        <v>1410</v>
       </c>
       <c r="H34" s="59">
-        <v>555</v>
+        <f>SummaryReport!H30</f>
+        <v>1666</v>
       </c>
       <c r="I34" s="60">
-        <f t="shared" si="2"/>
-        <v>0.12612612612612617</v>
+        <f t="shared" si="3"/>
+        <v>0.1536614645858343</v>
       </c>
     </row>
     <row r="35" spans="5:19" ht="15.6">
@@ -6039,25 +6142,25 @@
       <c r="F35" s="58"/>
       <c r="G35" s="64">
         <f>SUM(G23:G34)</f>
-        <v>14720</v>
+        <v>14705</v>
       </c>
       <c r="H35" s="64">
         <f>SUM(H23:H34)</f>
-        <v>17574</v>
+        <v>17556</v>
       </c>
       <c r="I35" s="60">
-        <f t="shared" si="2"/>
-        <v>0.16239899852054174</v>
+        <f t="shared" ref="I35" si="4">1-G35/H35</f>
+        <v>0.16239462292093876</v>
       </c>
     </row>
     <row r="38" spans="5:19">
-      <c r="E38" s="67" t="s">
+      <c r="E38" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6088,74 +6191,78 @@
     </row>
     <row r="41" spans="5:19">
       <c r="E41" s="54" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F41" s="54" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G41" s="54">
-        <v>520</v>
+        <v>280</v>
       </c>
       <c r="H41" s="59">
-        <v>528</v>
+        <f>SummaryReport!H35</f>
+        <v>288</v>
       </c>
       <c r="I41" s="61">
-        <f>1-G41/H41</f>
-        <v>1.5151515151515138E-2</v>
+        <f t="shared" ref="I41:I52" si="5">1-G41/H41</f>
+        <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="42" spans="5:19">
       <c r="E42" s="54" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F42" s="54" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G42" s="54">
-        <v>422</v>
+        <v>305</v>
       </c>
       <c r="H42" s="59">
-        <v>434</v>
+        <f>SummaryReport!H36</f>
+        <v>318</v>
       </c>
       <c r="I42" s="61">
-        <f t="shared" ref="I42:I53" si="3">1-G42/H42</f>
-        <v>2.7649769585253448E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.0880503144654079E-2</v>
       </c>
     </row>
     <row r="43" spans="5:19">
       <c r="E43" s="54" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F43" s="54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G43" s="54">
-        <v>305</v>
+        <v>97</v>
       </c>
       <c r="H43" s="59">
-        <v>322</v>
+        <f>SummaryReport!H37</f>
+        <v>93</v>
       </c>
       <c r="I43" s="61">
-        <f t="shared" si="3"/>
-        <v>5.2795031055900665E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.3010752688172005E-2</v>
       </c>
     </row>
     <row r="44" spans="5:19">
       <c r="E44" s="54" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F44" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="54">
         <v>73</v>
       </c>
-      <c r="G44" s="54">
-        <v>282</v>
-      </c>
       <c r="H44" s="59">
-        <v>284</v>
-      </c>
-      <c r="I44" s="62">
-        <f t="shared" si="3"/>
-        <v>7.0422535211267512E-3</v>
+        <f>SummaryReport!H38</f>
+        <v>71</v>
+      </c>
+      <c r="I44" s="61">
+        <f t="shared" si="5"/>
+        <v>-2.8169014084507005E-2</v>
       </c>
     </row>
     <row r="45" spans="5:19">
@@ -6169,154 +6276,165 @@
         <v>270</v>
       </c>
       <c r="H45" s="59">
-        <v>284</v>
+        <f>SummaryReport!H39</f>
+        <v>280</v>
       </c>
       <c r="I45" s="61">
-        <f t="shared" si="3"/>
-        <v>4.9295774647887369E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5714285714285698E-2</v>
       </c>
     </row>
     <row r="46" spans="5:19">
       <c r="E46" s="54" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="F46" s="54" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G46" s="54">
-        <v>175</v>
+        <v>520</v>
       </c>
       <c r="H46" s="59">
-        <v>180</v>
+        <f>SummaryReport!H40</f>
+        <v>523</v>
       </c>
       <c r="I46" s="61">
-        <f t="shared" si="3"/>
-        <v>2.777777777777779E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.7361376673039643E-3</v>
       </c>
     </row>
     <row r="47" spans="5:19">
       <c r="E47" s="54" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F47" s="54" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="G47" s="54">
-        <v>280</v>
+        <v>422</v>
       </c>
       <c r="H47" s="59">
-        <v>292</v>
+        <f>SummaryReport!H41</f>
+        <v>430</v>
       </c>
       <c r="I47" s="61">
-        <f t="shared" si="3"/>
-        <v>4.1095890410958957E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.8604651162790753E-2</v>
       </c>
     </row>
     <row r="48" spans="5:19">
       <c r="E48" s="54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F48" s="54" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="G48" s="54">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="H48" s="59">
-        <v>72</v>
+        <f>SummaryReport!H42</f>
+        <v>307</v>
       </c>
       <c r="I48" s="61">
-        <f t="shared" si="3"/>
-        <v>-1.388888888888884E-2</v>
+        <f t="shared" si="5"/>
+        <v>-5.2117263843648232E-2</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" s="54" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F49" s="54" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="G49" s="54">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="H49" s="59">
-        <v>312</v>
+        <f>SummaryReport!H43</f>
+        <v>176</v>
       </c>
       <c r="I49" s="61">
-        <f t="shared" si="3"/>
-        <v>-4.4871794871794934E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.6818181818182323E-3</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" s="54" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F50" s="54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G50" s="54">
         <v>97</v>
       </c>
       <c r="H50" s="59">
-        <v>94</v>
+        <f>SummaryReport!H44</f>
+        <v>93</v>
       </c>
       <c r="I50" s="61">
-        <f t="shared" si="3"/>
-        <v>-3.1914893617021267E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.3010752688172005E-2</v>
       </c>
     </row>
     <row r="51" spans="5:9">
       <c r="E51" s="54" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F51" s="54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G51" s="54">
         <v>97</v>
       </c>
       <c r="H51" s="59">
-        <v>94</v>
+        <f>SummaryReport!H45</f>
+        <v>93</v>
       </c>
       <c r="I51" s="61">
-        <f t="shared" si="3"/>
-        <v>-3.1914893617021267E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.3010752688172005E-2</v>
       </c>
     </row>
     <row r="52" spans="5:9">
       <c r="E52" s="54" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="F52" s="54" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G52" s="54">
-        <v>97</v>
+        <v>282</v>
       </c>
       <c r="H52" s="59">
-        <v>94</v>
-      </c>
-      <c r="I52" s="61">
-        <f t="shared" si="3"/>
-        <v>-3.1914893617021267E-2</v>
+        <f>SummaryReport!H46</f>
+        <v>280</v>
+      </c>
+      <c r="I52" s="62">
+        <f t="shared" si="5"/>
+        <v>-7.1428571428571175E-3</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="G53" s="55">
         <f>SUM(G41:G52)</f>
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="H53" s="55">
         <f>SUM(H41:H52)</f>
-        <v>2990</v>
+        <v>2952</v>
       </c>
       <c r="I53" s="61">
-        <f t="shared" si="3"/>
-        <v>1.538461538461533E-2</v>
+        <f t="shared" ref="I53" si="6">1-G53/H53</f>
+        <v>3.7262872628726074E-3</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="E41:I52">
+    <sortCondition ref="F41:F52"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="E20:I20"/>
     <mergeCell ref="E38:I38"/>

--- a/LoadRunner/Документация/WebTours_Профиль_нагрузки.xlsx
+++ b/LoadRunner/Документация/WebTours_Профиль_нагрузки.xlsx
@@ -4,42 +4,35 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="492" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="0" yWindow="492" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
     <sheet name="Соответствие" sheetId="4" r:id="rId2"/>
-    <sheet name="SummaryReport" sheetId="5" r:id="rId3"/>
-    <sheet name="Шаблоны соотвествие профилю" sheetId="2" r:id="rId4"/>
+    <sheet name="Соответствие профилю" sheetId="2" r:id="rId3"/>
+    <sheet name="Debug SummaryReport" sheetId="5" r:id="rId4"/>
+    <sheet name="Max SummaryReport" sheetId="6" r:id="rId5"/>
+    <sheet name="Max Performance SummaryReport" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="91">
   <si>
     <t>Вход в систему</t>
   </si>
   <si>
-    <t>Заполнение полей для поиска билета</t>
-  </si>
-  <si>
-    <t>Выбор рейса из найденных</t>
-  </si>
-  <si>
     <t>Оплата билета</t>
   </si>
   <si>
     <t>Просмотр квитанций</t>
   </si>
   <si>
-    <t>Отмена бронирования билета</t>
-  </si>
-  <si>
     <t>Выход из системы</t>
   </si>
   <si>
@@ -79,9 +72,6 @@
     <t>% отклонения</t>
   </si>
   <si>
-    <t>Просмотр квитанции</t>
-  </si>
-  <si>
     <t>login</t>
   </si>
   <si>
@@ -103,9 +93,6 @@
     <t>Подтверждение максимума</t>
   </si>
   <si>
-    <t>Профиль для 5 пользаков</t>
-  </si>
-  <si>
     <t>Script name</t>
   </si>
   <si>
@@ -305,6 +292,9 @@
   </si>
   <si>
     <t>Поиск максимума 5 ступень</t>
+  </si>
+  <si>
+    <t>Профиль для 10 пользаков</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1400,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="67"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="70"/>
+    <xf numFmtId="1" fontId="0" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2248,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -2271,75 +2261,75 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" thickBot="1">
       <c r="A1" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="S1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="U1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="P1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="X1" t="s">
         <v>37</v>
-      </c>
-      <c r="R1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C2" s="40">
         <v>1</v>
@@ -2371,7 +2361,7 @@
       </c>
       <c r="K2" s="3"/>
       <c r="M2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N2" s="11">
         <v>1.7</v>
@@ -2411,7 +2401,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>0</v>
@@ -2439,14 +2429,14 @@
         <v>60</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J3" s="3">
         <v>94.782608695652172</v>
       </c>
       <c r="K3" s="3"/>
       <c r="M3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N3" s="11">
         <v>1.5</v>
@@ -2482,10 +2472,10 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C4" s="40">
         <v>1</v>
@@ -2510,14 +2500,14 @@
         <v>60</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J4" s="3">
         <v>104.21052631578948</v>
       </c>
       <c r="K4" s="3"/>
       <c r="M4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N4" s="11">
         <v>1.3</v>
@@ -2553,10 +2543,10 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>11</v>
       </c>
       <c r="C5" s="40">
         <v>1</v>
@@ -2581,14 +2571,14 @@
         <v>60</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J5" s="3">
         <v>94.782608695652172</v>
       </c>
       <c r="K5" s="3"/>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N5" s="11">
         <v>1.7</v>
@@ -2624,10 +2614,10 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="40">
         <v>1</v>
@@ -2652,14 +2642,14 @@
         <v>60</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="3">
         <v>60</v>
       </c>
       <c r="K6" s="3"/>
       <c r="M6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N6" s="11">
         <v>1.3</v>
@@ -2695,10 +2685,10 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="40">
         <v>1</v>
@@ -2723,14 +2713,14 @@
         <v>60</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J7" s="3">
         <v>24.242424242424242</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N7" s="11">
         <v>1.4</v>
@@ -2766,10 +2756,10 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="40">
         <v>1</v>
@@ -2794,7 +2784,7 @@
         <v>60</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" s="3">
         <v>97.575757575757578</v>
@@ -2803,10 +2793,10 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="40">
         <v>1</v>
@@ -2831,7 +2821,7 @@
         <v>60</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J9" s="3">
         <v>176.56889258719926</v>
@@ -2840,10 +2830,10 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C10" s="40">
         <v>1</v>
@@ -2868,7 +2858,7 @@
         <v>24.242424242424242</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J10" s="3">
         <v>31.578947368421055</v>
@@ -2876,7 +2866,7 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>0</v>
@@ -2904,7 +2894,7 @@
         <v>24.242424242424242</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J11" s="3">
         <v>107.4141876430206</v>
@@ -2912,10 +2902,10 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="40">
         <v>1</v>
@@ -2940,7 +2930,7 @@
         <v>24.242424242424242</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J12" s="3">
         <v>31.578947368421055</v>
@@ -2948,10 +2938,10 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="40">
         <v>1</v>
@@ -2976,7 +2966,7 @@
         <v>24.242424242424242</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J13" s="3">
         <v>31.578947368421055</v>
@@ -2984,10 +2974,10 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="39" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C14" s="40">
         <v>1</v>
@@ -3012,7 +3002,7 @@
         <v>31.578947368421055</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J14" s="3">
         <v>999.30379307953683</v>
@@ -3020,10 +3010,10 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="39" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C15" s="40">
         <v>1</v>
@@ -3050,10 +3040,10 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="39" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C16" s="40">
         <v>1</v>
@@ -3080,10 +3070,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="39" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C17" s="40">
         <v>1</v>
@@ -3110,10 +3100,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="39" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" s="40">
         <v>1</v>
@@ -3140,10 +3130,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C19" s="40">
         <v>1</v>
@@ -3170,7 +3160,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>0</v>
@@ -3200,10 +3190,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C21" s="40">
         <v>1</v>
@@ -3230,10 +3220,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" s="40">
         <v>1</v>
@@ -3260,10 +3250,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C23" s="40">
         <v>1</v>
@@ -3290,7 +3280,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>0</v>
@@ -3320,10 +3310,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C25" s="40">
         <v>1</v>
@@ -3350,10 +3340,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C26" s="40">
         <v>1</v>
@@ -3380,10 +3370,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27" s="40">
         <v>1</v>
@@ -3410,10 +3400,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C28" s="40">
         <v>1</v>
@@ -3440,7 +3430,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B29" s="36" t="s">
         <v>0</v>
@@ -3470,10 +3460,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30" s="40">
         <v>1</v>
@@ -3501,39 +3491,39 @@
     <row r="32" spans="1:8" ht="15" thickBot="1"/>
     <row r="33" spans="1:9">
       <c r="A33" s="67" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B33" s="68"/>
     </row>
     <row r="34" spans="1:9" ht="108">
       <c r="A34" s="29" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E34" s="52" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F34" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="36">
       <c r="A35" s="29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B35" s="31">
         <v>520</v>
@@ -3550,12 +3540,12 @@
         <f>VLOOKUP(A35,Соответствие!A2:B13,2,FALSE)</f>
         <v>homePage</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="66">
         <f>C35/3</f>
         <v>176.56889258719926</v>
       </c>
       <c r="G35" s="10">
-        <f>VLOOKUP(E35,SummaryReport!A:J,8,FALSE)</f>
+        <f>VLOOKUP(E35,'Debug SummaryReport'!A:J,8,FALSE)</f>
         <v>175</v>
       </c>
       <c r="H35" s="13">
@@ -3582,12 +3572,12 @@
         <f>VLOOKUP(A36,Соответствие!A3:B14,2,FALSE)</f>
         <v>login</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="66">
         <f t="shared" ref="F36:F46" si="47">C36/3</f>
         <v>144.98994521877819</v>
       </c>
       <c r="G36" s="10">
-        <f>VLOOKUP(E36,SummaryReport!A:J,8,FALSE)</f>
+        <f>VLOOKUP(E36,'Debug SummaryReport'!A:J,8,FALSE)</f>
         <v>144</v>
       </c>
       <c r="H36" s="13">
@@ -3597,7 +3587,7 @@
     </row>
     <row r="37" spans="1:9" ht="54">
       <c r="A37" s="43" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B37" s="31">
         <v>305</v>
@@ -3614,12 +3604,12 @@
         <f>VLOOKUP(A37,Соответствие!A4:B15,2,FALSE)</f>
         <v>clickToFlights</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="66">
         <f t="shared" si="47"/>
         <v>107.41418764302061</v>
       </c>
       <c r="G37" s="10">
-        <f>VLOOKUP(E37,SummaryReport!A:J,8,FALSE)</f>
+        <f>VLOOKUP(E37,'Debug SummaryReport'!A:J,8,FALSE)</f>
         <v>107</v>
       </c>
       <c r="H37" s="13">
@@ -3629,7 +3619,7 @@
     </row>
     <row r="38" spans="1:9" ht="36">
       <c r="A38" s="32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B38" s="31">
         <v>282</v>
@@ -3646,12 +3636,12 @@
         <f>VLOOKUP(A38,Соответствие!A5:B16,2,FALSE)</f>
         <v>searchTicket</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="66">
         <f t="shared" si="47"/>
         <v>94.782608695652172</v>
       </c>
       <c r="G38" s="10">
-        <f>VLOOKUP(E38,SummaryReport!A:J,8,FALSE)</f>
+        <f>VLOOKUP(E38,'Debug SummaryReport'!A:J,8,FALSE)</f>
         <v>95</v>
       </c>
       <c r="H38" s="13">
@@ -3661,7 +3651,7 @@
     </row>
     <row r="39" spans="1:9" ht="36">
       <c r="A39" s="32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B39" s="31">
         <v>270</v>
@@ -3678,12 +3668,12 @@
         <f>VLOOKUP(A39,Соответствие!A6:B17,2,FALSE)</f>
         <v>departureTime</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="66">
         <f t="shared" si="47"/>
         <v>94.782608695652172</v>
       </c>
       <c r="G39" s="10">
-        <f>VLOOKUP(E39,SummaryReport!A:J,8,FALSE)</f>
+        <f>VLOOKUP(E39,'Debug SummaryReport'!A:J,8,FALSE)</f>
         <v>95</v>
       </c>
       <c r="H39" s="13">
@@ -3693,7 +3683,7 @@
     </row>
     <row r="40" spans="1:9" ht="18">
       <c r="A40" s="32" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B40" s="31">
         <v>175</v>
@@ -3710,12 +3700,12 @@
         <f>VLOOKUP(A40,Соответствие!A7:B18,2,FALSE)</f>
         <v>paymentDetails</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="66">
         <f t="shared" si="47"/>
         <v>60</v>
       </c>
       <c r="G40" s="10">
-        <f>VLOOKUP(E40,SummaryReport!A:J,8,FALSE)</f>
+        <f>VLOOKUP(E40,'Debug SummaryReport'!A:J,8,FALSE)</f>
         <v>60</v>
       </c>
       <c r="H40" s="13">
@@ -3725,7 +3715,7 @@
     </row>
     <row r="41" spans="1:9" ht="36">
       <c r="A41" s="32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B41" s="31">
         <v>280</v>
@@ -3742,12 +3732,12 @@
         <f>VLOOKUP(A41,Соответствие!A8:B19,2,FALSE)</f>
         <v>clickItinerary</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="66">
         <f t="shared" si="47"/>
         <v>97.575757575757578</v>
       </c>
       <c r="G41" s="10">
-        <f>VLOOKUP(E41,SummaryReport!A:J,8,FALSE)</f>
+        <f>VLOOKUP(E41,'Debug SummaryReport'!A:J,8,FALSE)</f>
         <v>97</v>
       </c>
       <c r="H41" s="13">
@@ -3757,7 +3747,7 @@
     </row>
     <row r="42" spans="1:9" ht="36">
       <c r="A42" s="32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B42" s="31">
         <v>73</v>
@@ -3774,12 +3764,12 @@
         <f>VLOOKUP(A42,Соответствие!A9:B20,2,FALSE)</f>
         <v>deleteTicket</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="66">
         <f t="shared" si="47"/>
         <v>24.242424242424239</v>
       </c>
       <c r="G42" s="10">
-        <f>VLOOKUP(E42,SummaryReport!A:J,8,FALSE)</f>
+        <f>VLOOKUP(E42,'Debug SummaryReport'!A:J,8,FALSE)</f>
         <v>24</v>
       </c>
       <c r="H42" s="13">
@@ -3789,7 +3779,7 @@
     </row>
     <row r="43" spans="1:9" ht="18">
       <c r="A43" s="32" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B43" s="31">
         <v>323</v>
@@ -3806,12 +3796,12 @@
         <f>VLOOKUP(A43,Соответствие!A10:B21,2,FALSE)</f>
         <v>logout</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="66">
         <f t="shared" si="47"/>
         <v>104.21052631578948</v>
       </c>
       <c r="G43" s="10">
-        <f>VLOOKUP(E43,SummaryReport!A:J,8,FALSE)</f>
+        <f>VLOOKUP(E43,'Debug SummaryReport'!A:J,8,FALSE)</f>
         <v>103</v>
       </c>
       <c r="H43" s="13">
@@ -3821,7 +3811,7 @@
     </row>
     <row r="44" spans="1:9" ht="54">
       <c r="A44" s="32" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B44" s="31">
         <v>97</v>
@@ -3838,12 +3828,12 @@
         <f>VLOOKUP(A44,Соответствие!A11:B22,2,FALSE)</f>
         <v>clickToRegProfile</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="66">
         <f t="shared" si="47"/>
         <v>31.578947368421055</v>
       </c>
       <c r="G44" s="10">
-        <f>VLOOKUP(E44,SummaryReport!A:J,8,FALSE)</f>
+        <f>VLOOKUP(E44,'Debug SummaryReport'!A:J,8,FALSE)</f>
         <v>31</v>
       </c>
       <c r="H44" s="13">
@@ -3853,7 +3843,7 @@
     </row>
     <row r="45" spans="1:9" ht="36">
       <c r="A45" s="32" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B45" s="31">
         <v>97</v>
@@ -3870,12 +3860,12 @@
         <f>VLOOKUP(A45,Соответствие!A12:B23,2,FALSE)</f>
         <v>regProfile</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="66">
         <f t="shared" si="47"/>
         <v>31.578947368421055</v>
       </c>
       <c r="G45" s="10">
-        <f>VLOOKUP(E45,SummaryReport!A:J,8,FALSE)</f>
+        <f>VLOOKUP(E45,'Debug SummaryReport'!A:J,8,FALSE)</f>
         <v>31</v>
       </c>
       <c r="H45" s="13">
@@ -3885,7 +3875,7 @@
     </row>
     <row r="46" spans="1:9" ht="54">
       <c r="A46" s="32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B46" s="31">
         <v>97</v>
@@ -3902,12 +3892,12 @@
         <f>VLOOKUP(A46,Соответствие!A13:B24,2,FALSE)</f>
         <v>saveProfile</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="66">
         <f t="shared" si="47"/>
         <v>31.578947368421055</v>
       </c>
       <c r="G46" s="10">
-        <f>VLOOKUP(E46,SummaryReport!A:J,8,FALSE)</f>
+        <f>VLOOKUP(E46,'Debug SummaryReport'!A:J,8,FALSE)</f>
         <v>31</v>
       </c>
       <c r="H46" s="13">
@@ -3917,7 +3907,7 @@
     </row>
     <row r="47" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="A47" s="33" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B47" s="34">
         <f>SUM(B35:B46)</f>
@@ -3939,7 +3929,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="C49" s="23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
@@ -3953,19 +3943,19 @@
     </row>
     <row r="50" spans="1:9">
       <c r="C50" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E50" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I50" s="21">
         <f>1-B52/H52</f>
@@ -3974,7 +3964,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B51" s="24">
         <f>124/3</f>
@@ -4009,7 +3999,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B52" s="24">
         <f>150/3</f>
@@ -4044,7 +4034,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B53" s="25">
         <f>30/3</f>
@@ -4078,7 +4068,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B54" s="24">
         <f>20/3</f>
@@ -4108,7 +4098,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B55" s="24">
         <f>120/3</f>
@@ -4162,10 +4152,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1">
       <c r="A1" s="47" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4174,7 +4164,7 @@
         <v>Главная Welcome страница</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4183,7 +4173,7 @@
         <v>Вход в систему</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.8">
@@ -4192,7 +4182,7 @@
         <v>Переход на страницу поиска билетов</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8">
@@ -4201,7 +4191,7 @@
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8">
@@ -4210,7 +4200,7 @@
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4219,7 +4209,7 @@
         <v>Оплата билета</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4228,7 +4218,7 @@
         <v>Просмотр квитанций</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4237,7 +4227,7 @@
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4246,7 +4236,7 @@
         <v>Выход из системы</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.8">
@@ -4255,7 +4245,7 @@
         <v>Переход на страницу регистрации</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8">
@@ -4264,7 +4254,7 @@
         <v>Заполнение полей регистарции</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.8">
@@ -4273,7 +4263,7 @@
         <v>Переход на следуюущий экран после регистарции</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4290,1283 +4280,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="65">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="D3" s="65">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="E3" s="65">
-        <v>1.76</v>
-      </c>
-      <c r="F3" s="65">
-        <v>0.376</v>
-      </c>
-      <c r="G3" s="65">
-        <v>1.43</v>
-      </c>
-      <c r="H3" s="65">
-        <v>97</v>
-      </c>
-      <c r="I3" s="65">
-        <v>0</v>
-      </c>
-      <c r="J3" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="65">
-        <v>0.151</v>
-      </c>
-      <c r="D4" s="65">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="E4" s="65">
-        <v>0.48</v>
-      </c>
-      <c r="F4" s="65">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="G4" s="65">
-        <v>0.193</v>
-      </c>
-      <c r="H4" s="65">
-        <v>107</v>
-      </c>
-      <c r="I4" s="65">
-        <v>0</v>
-      </c>
-      <c r="J4" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="65">
-        <v>0.123</v>
-      </c>
-      <c r="D5" s="65">
-        <v>0.155</v>
-      </c>
-      <c r="E5" s="65">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="F5" s="65">
-        <v>0.03</v>
-      </c>
-      <c r="G5" s="65">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="H5" s="65">
-        <v>31</v>
-      </c>
-      <c r="I5" s="65">
-        <v>0</v>
-      </c>
-      <c r="J5" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="65">
-        <v>0.53</v>
-      </c>
-      <c r="D6" s="65">
-        <v>0.625</v>
-      </c>
-      <c r="E6" s="65">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="F6" s="65">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="G6" s="65">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="H6" s="65">
-        <v>24</v>
-      </c>
-      <c r="I6" s="65">
-        <v>0</v>
-      </c>
-      <c r="J6" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="65">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="D7" s="65">
-        <v>0.151</v>
-      </c>
-      <c r="E7" s="65">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="F7" s="65">
-        <v>1.4E-2</v>
-      </c>
-      <c r="G7" s="65">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="H7" s="65">
-        <v>95</v>
-      </c>
-      <c r="I7" s="65">
-        <v>0</v>
-      </c>
-      <c r="J7" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="65">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="D8" s="65">
-        <v>0.159</v>
-      </c>
-      <c r="E8" s="65">
-        <v>0.32</v>
-      </c>
-      <c r="F8" s="65">
-        <v>1.9E-2</v>
-      </c>
-      <c r="G8" s="65">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="H8" s="65">
-        <v>175</v>
-      </c>
-      <c r="I8" s="65">
-        <v>0</v>
-      </c>
-      <c r="J8" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="65">
-        <v>0.19</v>
-      </c>
-      <c r="D9" s="65">
-        <v>0.223</v>
-      </c>
-      <c r="E9" s="65">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="F9" s="65">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G9" s="65">
-        <v>0.24</v>
-      </c>
-      <c r="H9" s="65">
-        <v>144</v>
-      </c>
-      <c r="I9" s="65">
-        <v>0</v>
-      </c>
-      <c r="J9" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="65">
-        <v>0.124</v>
-      </c>
-      <c r="D10" s="65">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="E10" s="65">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="F10" s="65">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="G10" s="65">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="H10" s="65">
-        <v>103</v>
-      </c>
-      <c r="I10" s="65">
-        <v>0</v>
-      </c>
-      <c r="J10" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="65">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="D11" s="65">
-        <v>0.152</v>
-      </c>
-      <c r="E11" s="65">
-        <v>0.17</v>
-      </c>
-      <c r="F11" s="65">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G11" s="65">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="H11" s="65">
-        <v>60</v>
-      </c>
-      <c r="I11" s="65">
-        <v>0</v>
-      </c>
-      <c r="J11" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="65">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="D12" s="65">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="E12" s="65">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="F12" s="65">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G12" s="65">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="H12" s="65">
-        <v>31</v>
-      </c>
-      <c r="I12" s="65">
-        <v>0</v>
-      </c>
-      <c r="J12" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="65">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="D13" s="65">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="E13" s="65">
-        <v>0.253</v>
-      </c>
-      <c r="F13" s="65">
-        <v>1.4E-2</v>
-      </c>
-      <c r="G13" s="65">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="H13" s="65">
-        <v>31</v>
-      </c>
-      <c r="I13" s="65">
-        <v>0</v>
-      </c>
-      <c r="J13" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="65">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D14" s="65">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="E14" s="65">
-        <v>0.115</v>
-      </c>
-      <c r="F14" s="65">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G14" s="65">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="65">
-        <v>95</v>
-      </c>
-      <c r="I14" s="65">
-        <v>0</v>
-      </c>
-      <c r="J14" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="66">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="D19" s="66">
-        <v>1.7769999999999999</v>
-      </c>
-      <c r="E19" s="66">
-        <v>52.459000000000003</v>
-      </c>
-      <c r="F19" s="66">
-        <v>4.1239999999999997</v>
-      </c>
-      <c r="G19" s="66">
-        <v>2.492</v>
-      </c>
-      <c r="H19" s="66">
-        <v>1717</v>
-      </c>
-      <c r="I19" s="66">
-        <v>1</v>
-      </c>
-      <c r="J19" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="66">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="D20" s="66">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="E20" s="66">
-        <v>28.887</v>
-      </c>
-      <c r="F20" s="66">
-        <v>2.1850000000000001</v>
-      </c>
-      <c r="G20" s="66">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="H20" s="66">
-        <v>1890</v>
-      </c>
-      <c r="I20" s="66">
-        <v>0</v>
-      </c>
-      <c r="J20" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="66">
-        <v>0.112</v>
-      </c>
-      <c r="D21" s="66">
-        <v>0.39</v>
-      </c>
-      <c r="E21" s="66">
-        <v>13.4</v>
-      </c>
-      <c r="F21" s="66">
-        <v>1.359</v>
-      </c>
-      <c r="G21" s="66">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="H21" s="66">
-        <v>551</v>
-      </c>
-      <c r="I21" s="66">
-        <v>0</v>
-      </c>
-      <c r="J21" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="66">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D22" s="66">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="E22" s="66">
-        <v>11.215</v>
-      </c>
-      <c r="F22" s="66">
-        <v>1.27</v>
-      </c>
-      <c r="G22" s="66">
-        <v>1.5449999999999999</v>
-      </c>
-      <c r="H22" s="66">
-        <v>418</v>
-      </c>
-      <c r="I22" s="66">
-        <v>12</v>
-      </c>
-      <c r="J22" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="66">
-        <v>0.123</v>
-      </c>
-      <c r="D23" s="66">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="E23" s="66">
-        <v>21.018000000000001</v>
-      </c>
-      <c r="F23" s="66">
-        <v>1.091</v>
-      </c>
-      <c r="G23" s="66">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="H23" s="66">
-        <v>1666</v>
-      </c>
-      <c r="I23" s="66">
-        <v>0</v>
-      </c>
-      <c r="J23" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="66">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="D24" s="66">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="E24" s="66">
-        <v>32.509</v>
-      </c>
-      <c r="F24" s="66">
-        <v>3.0270000000000001</v>
-      </c>
-      <c r="G24" s="66">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="H24" s="66">
-        <v>3109</v>
-      </c>
-      <c r="I24" s="66">
-        <v>0</v>
-      </c>
-      <c r="J24" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="66">
-        <v>0.183</v>
-      </c>
-      <c r="D25" s="66">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="E25" s="66">
-        <v>29.841999999999999</v>
-      </c>
-      <c r="F25" s="66">
-        <v>2.9049999999999998</v>
-      </c>
-      <c r="G25" s="66">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="H25" s="66">
-        <v>2558</v>
-      </c>
-      <c r="I25" s="66">
-        <v>0</v>
-      </c>
-      <c r="J25" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="66">
-        <v>0.124</v>
-      </c>
-      <c r="D26" s="66">
-        <v>0.379</v>
-      </c>
-      <c r="E26" s="66">
-        <v>28.244</v>
-      </c>
-      <c r="F26" s="66">
-        <v>1.609</v>
-      </c>
-      <c r="G26" s="66">
-        <v>0.219</v>
-      </c>
-      <c r="H26" s="66">
-        <v>1827</v>
-      </c>
-      <c r="I26" s="66">
-        <v>0</v>
-      </c>
-      <c r="J26" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="66">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="D27" s="66">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="E27" s="66">
-        <v>17.190000000000001</v>
-      </c>
-      <c r="F27" s="66">
-        <v>1.2350000000000001</v>
-      </c>
-      <c r="G27" s="66">
-        <v>0.221</v>
-      </c>
-      <c r="H27" s="66">
-        <v>1052</v>
-      </c>
-      <c r="I27" s="66">
-        <v>0</v>
-      </c>
-      <c r="J27" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="66">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="D28" s="66">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="E28" s="66">
-        <v>16.477</v>
-      </c>
-      <c r="F28" s="66">
-        <v>1.34</v>
-      </c>
-      <c r="G28" s="66">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="H28" s="66">
-        <v>551</v>
-      </c>
-      <c r="I28" s="66">
-        <v>0</v>
-      </c>
-      <c r="J28" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="66">
-        <v>0.189</v>
-      </c>
-      <c r="D29" s="66">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="E29" s="66">
-        <v>26.628</v>
-      </c>
-      <c r="F29" s="66">
-        <v>2.4529999999999998</v>
-      </c>
-      <c r="G29" s="66">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="H29" s="66">
-        <v>551</v>
-      </c>
-      <c r="I29" s="66">
-        <v>0</v>
-      </c>
-      <c r="J29" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="66">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D30" s="66">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="E30" s="66">
-        <v>17.936</v>
-      </c>
-      <c r="F30" s="66">
-        <v>1.0960000000000001</v>
-      </c>
-      <c r="G30" s="66">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="H30" s="66">
-        <v>1666</v>
-      </c>
-      <c r="I30" s="66">
-        <v>0</v>
-      </c>
-      <c r="J30" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G33" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35">
-        <v>0.183</v>
-      </c>
-      <c r="D35">
-        <v>2.9540000000000002</v>
-      </c>
-      <c r="E35">
-        <v>61.076999999999998</v>
-      </c>
-      <c r="F35">
-        <v>7.8680000000000003</v>
-      </c>
-      <c r="G35">
-        <v>3.496</v>
-      </c>
-      <c r="H35">
-        <v>288</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="D36">
-        <v>1.099</v>
-      </c>
-      <c r="E36">
-        <v>21.486999999999998</v>
-      </c>
-      <c r="F36">
-        <v>3.1640000000000001</v>
-      </c>
-      <c r="G36">
-        <v>3.5539999999999998</v>
-      </c>
-      <c r="H36">
-        <v>318</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37">
-        <v>0.121</v>
-      </c>
-      <c r="D37">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="E37">
-        <v>7.82</v>
-      </c>
-      <c r="F37">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="G37">
-        <v>2.2010000000000001</v>
-      </c>
-      <c r="H37">
-        <v>93</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D38">
-        <v>1.7270000000000001</v>
-      </c>
-      <c r="E38">
-        <v>27.975999999999999</v>
-      </c>
-      <c r="F38">
-        <v>4.1970000000000001</v>
-      </c>
-      <c r="G38">
-        <v>1.262</v>
-      </c>
-      <c r="H38">
-        <v>71</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39">
-        <v>0.107</v>
-      </c>
-      <c r="D39">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="E39">
-        <v>10.993</v>
-      </c>
-      <c r="F39">
-        <v>1.6180000000000001</v>
-      </c>
-      <c r="G39">
-        <v>0.214</v>
-      </c>
-      <c r="H39">
-        <v>280</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40">
-        <v>0.129</v>
-      </c>
-      <c r="D40">
-        <v>1.33</v>
-      </c>
-      <c r="E40">
-        <v>20.942</v>
-      </c>
-      <c r="F40">
-        <v>3.3889999999999998</v>
-      </c>
-      <c r="G40">
-        <v>4.923</v>
-      </c>
-      <c r="H40">
-        <v>523</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="D41">
-        <v>1.25</v>
-      </c>
-      <c r="E41">
-        <v>20.780999999999999</v>
-      </c>
-      <c r="F41">
-        <v>3.1070000000000002</v>
-      </c>
-      <c r="G41">
-        <v>4.452</v>
-      </c>
-      <c r="H41">
-        <v>430</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42">
-        <v>0.124</v>
-      </c>
-      <c r="D42">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="E42">
-        <v>14.5</v>
-      </c>
-      <c r="F42">
-        <v>2.1760000000000002</v>
-      </c>
-      <c r="G42">
-        <v>0.39</v>
-      </c>
-      <c r="H42">
-        <v>307</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="D43">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="E43">
-        <v>11.957000000000001</v>
-      </c>
-      <c r="F43">
-        <v>1.92</v>
-      </c>
-      <c r="G43">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="H43">
-        <v>176</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="D44">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="E44">
-        <v>11.2</v>
-      </c>
-      <c r="F44">
-        <v>1.929</v>
-      </c>
-      <c r="G44">
-        <v>1.476</v>
-      </c>
-      <c r="H44">
-        <v>93</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="D45">
-        <v>1.327</v>
-      </c>
-      <c r="E45">
-        <v>17.082999999999998</v>
-      </c>
-      <c r="F45">
-        <v>3.4870000000000001</v>
-      </c>
-      <c r="G45">
-        <v>1.069</v>
-      </c>
-      <c r="H45">
-        <v>93</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D46">
-        <v>0.503</v>
-      </c>
-      <c r="E46">
-        <v>13.798</v>
-      </c>
-      <c r="F46">
-        <v>1.587</v>
-      </c>
-      <c r="G46">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="H46">
-        <v>280</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:S53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="4" width="9.109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.109375" customWidth="1"/>
@@ -5583,7 +4307,7 @@
   <sheetData>
     <row r="3" spans="5:9">
       <c r="E3" s="69" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="F3" s="69"/>
       <c r="G3" s="69"/>
@@ -5592,109 +4316,124 @@
     </row>
     <row r="5" spans="5:9">
       <c r="E5" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="6" spans="5:9">
-      <c r="E6" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>76</v>
+      <c r="E6" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A35,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Главная Welcome страница</v>
+      </c>
+      <c r="F6" s="54" t="str">
+        <f>VLOOKUP(E6,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>homePage</v>
       </c>
       <c r="G6" s="54">
-        <v>280</v>
+        <f>VLOOKUP(E6,'Автоматизированный расчет'!A$34:B$46,2,FALSE)</f>
+        <v>520</v>
       </c>
       <c r="H6" s="55">
-        <f>SummaryReport!H3*3</f>
-        <v>291</v>
+        <f>VLOOKUP('Соответствие профилю'!F6,'Debug SummaryReport'!A$2:J$14,8,FALSE)*3</f>
+        <v>525</v>
       </c>
       <c r="I6" s="56">
         <f t="shared" ref="I6:I17" si="0">1-G6/H6</f>
-        <v>3.7800687285223344E-2</v>
+        <v>9.52380952380949E-3</v>
       </c>
     </row>
     <row r="7" spans="5:9">
-      <c r="E7" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>81</v>
+      <c r="E7" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A36,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Вход в систему</v>
+      </c>
+      <c r="F7" s="54" t="str">
+        <f>VLOOKUP(E7,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>login</v>
       </c>
       <c r="G7" s="54">
-        <v>305</v>
+        <f>VLOOKUP(E7,'Автоматизированный расчет'!A$34:B$46,2,FALSE)</f>
+        <v>422</v>
       </c>
       <c r="H7" s="55">
-        <f>SummaryReport!H4*3</f>
-        <v>321</v>
+        <f>VLOOKUP('Соответствие профилю'!F7,'Debug SummaryReport'!A$2:J$14,8,FALSE)*3</f>
+        <v>432</v>
       </c>
       <c r="I7" s="56">
         <f t="shared" si="0"/>
-        <v>4.9844236760124616E-2</v>
+        <v>2.314814814814814E-2</v>
       </c>
     </row>
     <row r="8" spans="5:9">
-      <c r="E8" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>82</v>
+      <c r="E8" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A37,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Переход на страницу поиска билетов</v>
+      </c>
+      <c r="F8" s="54" t="str">
+        <f>VLOOKUP(E8,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>clickToFlights</v>
       </c>
       <c r="G8" s="54">
-        <v>97</v>
+        <f>VLOOKUP(E8,'Автоматизированный расчет'!A$34:B$46,2,FALSE)</f>
+        <v>305</v>
       </c>
       <c r="H8" s="55">
-        <f>SummaryReport!H5*3</f>
-        <v>93</v>
+        <f>VLOOKUP('Соответствие профилю'!F8,'Debug SummaryReport'!A$2:J$14,8,FALSE)*3</f>
+        <v>321</v>
       </c>
       <c r="I8" s="56">
         <f t="shared" si="0"/>
-        <v>-4.3010752688172005E-2</v>
+        <v>4.9844236760124616E-2</v>
       </c>
     </row>
     <row r="9" spans="5:9">
-      <c r="E9" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>77</v>
+      <c r="E9" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A38,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v xml:space="preserve">Заполнение полей для поиска билета </v>
+      </c>
+      <c r="F9" s="54" t="str">
+        <f>VLOOKUP(E9,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>searchTicket</v>
       </c>
       <c r="G9" s="54">
-        <v>73</v>
+        <f>VLOOKUP(E9,'Автоматизированный расчет'!A$34:B$46,2,FALSE)</f>
+        <v>282</v>
       </c>
       <c r="H9" s="55">
-        <f>SummaryReport!H6*3</f>
-        <v>72</v>
+        <f>VLOOKUP('Соответствие профилю'!F9,'Debug SummaryReport'!A$2:J$14,8,FALSE)*3</f>
+        <v>285</v>
       </c>
       <c r="I9" s="56">
         <f t="shared" si="0"/>
-        <v>-1.388888888888884E-2</v>
+        <v>1.0526315789473717E-2</v>
       </c>
     </row>
     <row r="10" spans="5:9">
-      <c r="E10" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="54" t="s">
-        <v>74</v>
+      <c r="E10" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A39,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v xml:space="preserve">Выбор рейса из найденных </v>
+      </c>
+      <c r="F10" s="54" t="str">
+        <f>VLOOKUP(E10,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>departureTime</v>
       </c>
       <c r="G10" s="54">
+        <f>VLOOKUP(E10,'Автоматизированный расчет'!A$34:B$46,2,FALSE)</f>
         <v>270</v>
       </c>
       <c r="H10" s="55">
-        <f>SummaryReport!H7*3</f>
+        <f>VLOOKUP('Соответствие профилю'!F10,'Debug SummaryReport'!A$2:J$14,8,FALSE)*3</f>
         <v>285</v>
       </c>
       <c r="I10" s="56">
@@ -5703,93 +4442,108 @@
       </c>
     </row>
     <row r="11" spans="5:9">
-      <c r="E11" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="54" t="s">
-        <v>83</v>
+      <c r="E11" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A40,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Оплата билета</v>
+      </c>
+      <c r="F11" s="54" t="str">
+        <f>VLOOKUP(E11,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>paymentDetails</v>
       </c>
       <c r="G11" s="54">
-        <v>520</v>
+        <f>VLOOKUP(E11,'Автоматизированный расчет'!A$34:B$46,2,FALSE)</f>
+        <v>175</v>
       </c>
       <c r="H11" s="55">
-        <f>SummaryReport!H8*3</f>
-        <v>525</v>
+        <f>VLOOKUP('Соответствие профилю'!F11,'Debug SummaryReport'!A$2:J$14,8,FALSE)*3</f>
+        <v>180</v>
       </c>
       <c r="I11" s="56">
         <f t="shared" si="0"/>
-        <v>9.52380952380949E-3</v>
+        <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="12" spans="5:9">
-      <c r="E12" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>20</v>
+      <c r="E12" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A41,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Просмотр квитанций</v>
+      </c>
+      <c r="F12" s="54" t="str">
+        <f>VLOOKUP(E12,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>clickItinerary</v>
       </c>
       <c r="G12" s="54">
-        <v>422</v>
+        <f>VLOOKUP(E12,'Автоматизированный расчет'!A$34:B$46,2,FALSE)</f>
+        <v>280</v>
       </c>
       <c r="H12" s="55">
-        <f>SummaryReport!H9*3</f>
-        <v>432</v>
+        <f>VLOOKUP('Соответствие профилю'!F12,'Debug SummaryReport'!A$2:J$14,8,FALSE)*3</f>
+        <v>291</v>
       </c>
       <c r="I12" s="56">
         <f t="shared" si="0"/>
-        <v>2.314814814814814E-2</v>
+        <v>3.7800687285223344E-2</v>
       </c>
     </row>
     <row r="13" spans="5:9">
-      <c r="E13" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>21</v>
+      <c r="E13" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A42,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v xml:space="preserve">Отмена бронирования </v>
+      </c>
+      <c r="F13" s="54" t="str">
+        <f>VLOOKUP(E13,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>deleteTicket</v>
       </c>
       <c r="G13" s="54">
-        <v>323</v>
+        <f>VLOOKUP(E13,'Автоматизированный расчет'!A$34:B$46,2,FALSE)</f>
+        <v>73</v>
       </c>
       <c r="H13" s="55">
-        <f>SummaryReport!H10*3</f>
-        <v>309</v>
+        <f>VLOOKUP('Соответствие профилю'!F13,'Debug SummaryReport'!A$2:J$14,8,FALSE)*3</f>
+        <v>72</v>
       </c>
       <c r="I13" s="56">
         <f t="shared" si="0"/>
-        <v>-4.5307443365695699E-2</v>
+        <v>-1.388888888888884E-2</v>
       </c>
     </row>
     <row r="14" spans="5:9">
-      <c r="E14" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="54" t="s">
-        <v>75</v>
+      <c r="E14" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A43,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Выход из системы</v>
+      </c>
+      <c r="F14" s="54" t="str">
+        <f>VLOOKUP(E14,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>logout</v>
       </c>
       <c r="G14" s="54">
-        <v>175</v>
+        <f>VLOOKUP(E14,'Автоматизированный расчет'!A$34:B$46,2,FALSE)</f>
+        <v>323</v>
       </c>
       <c r="H14" s="55">
-        <f>SummaryReport!H11*3</f>
-        <v>180</v>
+        <f>VLOOKUP('Соответствие профилю'!F14,'Debug SummaryReport'!A$2:J$14,8,FALSE)*3</f>
+        <v>309</v>
       </c>
       <c r="I14" s="56">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
+        <v>-4.5307443365695699E-2</v>
       </c>
     </row>
     <row r="15" spans="5:9">
-      <c r="E15" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>84</v>
+      <c r="E15" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A44,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Переход на страницу регистрации</v>
+      </c>
+      <c r="F15" s="54" t="str">
+        <f>VLOOKUP(E15,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>clickToRegProfile</v>
       </c>
       <c r="G15" s="54">
+        <f>VLOOKUP(E15,'Автоматизированный расчет'!A$34:B$46,2,FALSE)</f>
         <v>97</v>
       </c>
       <c r="H15" s="55">
-        <f>SummaryReport!H12*3</f>
+        <f>VLOOKUP('Соответствие профилю'!F15,'Debug SummaryReport'!A$2:J$14,8,FALSE)*3</f>
         <v>93</v>
       </c>
       <c r="I15" s="56">
@@ -5798,17 +4552,20 @@
       </c>
     </row>
     <row r="16" spans="5:9">
-      <c r="E16" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>85</v>
+      <c r="E16" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A45,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Заполнение полей регистарции</v>
+      </c>
+      <c r="F16" s="54" t="str">
+        <f>VLOOKUP(E16,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>regProfile</v>
       </c>
       <c r="G16" s="54">
+        <f>VLOOKUP(E16,'Автоматизированный расчет'!A$34:B$46,2,FALSE)</f>
         <v>97</v>
       </c>
       <c r="H16" s="55">
-        <f>SummaryReport!H13*3</f>
+        <f>VLOOKUP('Соответствие профилю'!F16,'Debug SummaryReport'!A$2:J$14,8,FALSE)*3</f>
         <v>93</v>
       </c>
       <c r="I16" s="56">
@@ -5817,22 +4574,25 @@
       </c>
     </row>
     <row r="17" spans="5:19">
-      <c r="E17" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="54" t="s">
-        <v>73</v>
+      <c r="E17" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A46,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Переход на следуюущий экран после регистарции</v>
+      </c>
+      <c r="F17" s="54" t="str">
+        <f>VLOOKUP(E17,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>saveProfile</v>
       </c>
       <c r="G17" s="54">
-        <v>282</v>
+        <f>VLOOKUP(E17,'Автоматизированный расчет'!A$34:B$46,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="H17" s="55">
-        <f>SummaryReport!H14*3</f>
-        <v>285</v>
+        <f>VLOOKUP('Соответствие профилю'!F17,'Debug SummaryReport'!A$2:J$14,8,FALSE)*3</f>
+        <v>93</v>
       </c>
       <c r="I17" s="56">
         <f t="shared" si="0"/>
-        <v>1.0526315789473717E-2</v>
+        <v>-4.3010752688172005E-2</v>
       </c>
     </row>
     <row r="18" spans="5:19">
@@ -5855,7 +4615,7 @@
     </row>
     <row r="20" spans="5:19">
       <c r="E20" s="69" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F20" s="69"/>
       <c r="G20" s="69"/>
@@ -5870,271 +4630,295 @@
     </row>
     <row r="22" spans="5:19">
       <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="S22" s="63"/>
     </row>
     <row r="23" spans="5:19">
-      <c r="E23" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="54" t="s">
-        <v>76</v>
+      <c r="E23" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A35,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Главная Welcome страница</v>
+      </c>
+      <c r="F23" s="54" t="str">
+        <f>VLOOKUP(E23,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>homePage</v>
       </c>
       <c r="G23" s="55">
-        <f t="shared" ref="G23:G34" si="2">G6*5</f>
-        <v>1400</v>
+        <f>VLOOKUP(E23,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>2648.533388807989</v>
       </c>
       <c r="H23" s="59">
-        <f>SummaryReport!H19</f>
-        <v>1717</v>
+        <f>VLOOKUP(F23,'Max SummaryReport'!A$1:J$13,8,FALSE)*3</f>
+        <v>2652</v>
       </c>
       <c r="I23" s="60">
-        <f t="shared" ref="I23:I34" si="3">1-G23/H23</f>
-        <v>0.18462434478741996</v>
+        <f t="shared" ref="I23:I34" si="2">1-G23/H23</f>
+        <v>1.3071686244385816E-3</v>
       </c>
       <c r="S23" s="63"/>
     </row>
     <row r="24" spans="5:19">
-      <c r="E24" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="54" t="s">
-        <v>81</v>
+      <c r="E24" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A36,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Вход в систему</v>
+      </c>
+      <c r="F24" s="54" t="str">
+        <f>VLOOKUP(E24,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>login</v>
       </c>
       <c r="G24" s="55">
+        <f>VLOOKUP(E24,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>2174.8491782816727</v>
+      </c>
+      <c r="H24" s="59">
+        <f>VLOOKUP(F24,'Max SummaryReport'!A$1:J$13,8,FALSE)*3</f>
+        <v>2181</v>
+      </c>
+      <c r="I24" s="60">
         <f t="shared" si="2"/>
-        <v>1525</v>
-      </c>
-      <c r="H24" s="59">
-        <f>SummaryReport!H20</f>
-        <v>1890</v>
-      </c>
-      <c r="I24" s="60">
-        <f t="shared" si="3"/>
-        <v>0.19312169312169314</v>
+        <v>2.8201841899712088E-3</v>
       </c>
       <c r="S24" s="63"/>
     </row>
     <row r="25" spans="5:19">
-      <c r="E25" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="54" t="s">
-        <v>82</v>
+      <c r="E25" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A37,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Переход на страницу поиска билетов</v>
+      </c>
+      <c r="F25" s="54" t="str">
+        <f>VLOOKUP(E25,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>clickToFlights</v>
       </c>
       <c r="G25" s="55">
+        <f>VLOOKUP(E25,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>1611.2128146453092</v>
+      </c>
+      <c r="H25" s="59">
+        <f>VLOOKUP(F25,'Max SummaryReport'!A$1:J$13,8,FALSE)*3</f>
+        <v>1614</v>
+      </c>
+      <c r="I25" s="60">
         <f t="shared" si="2"/>
-        <v>485</v>
-      </c>
-      <c r="H25" s="59">
-        <f>SummaryReport!H21</f>
-        <v>551</v>
-      </c>
-      <c r="I25" s="60">
-        <f t="shared" si="3"/>
-        <v>0.11978221415607981</v>
+        <v>1.7268806410724036E-3</v>
       </c>
       <c r="S25" s="63"/>
     </row>
     <row r="26" spans="5:19">
-      <c r="E26" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="54" t="s">
-        <v>77</v>
+      <c r="E26" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A38,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v xml:space="preserve">Заполнение полей для поиска билета </v>
+      </c>
+      <c r="F26" s="54" t="str">
+        <f>VLOOKUP(E26,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>searchTicket</v>
       </c>
       <c r="G26" s="55">
+        <f>VLOOKUP(E26,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>1421.7391304347825</v>
+      </c>
+      <c r="H26" s="59">
+        <f>VLOOKUP(F26,'Max SummaryReport'!A$1:J$13,8,FALSE)*3</f>
+        <v>1428</v>
+      </c>
+      <c r="I26" s="60">
         <f t="shared" si="2"/>
-        <v>365</v>
-      </c>
-      <c r="H26" s="59">
-        <f>SummaryReport!H22</f>
-        <v>418</v>
-      </c>
-      <c r="I26" s="60">
-        <f t="shared" si="3"/>
-        <v>0.12679425837320579</v>
+        <v>4.3843624406284532E-3</v>
       </c>
       <c r="S26" s="63"/>
     </row>
     <row r="27" spans="5:19">
-      <c r="E27" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="54" t="s">
-        <v>74</v>
+      <c r="E27" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A39,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v xml:space="preserve">Выбор рейса из найденных </v>
+      </c>
+      <c r="F27" s="54" t="str">
+        <f>VLOOKUP(E27,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>departureTime</v>
       </c>
       <c r="G27" s="55">
+        <f>VLOOKUP(E27,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>1421.7391304347825</v>
+      </c>
+      <c r="H27" s="59">
+        <f>VLOOKUP(F27,'Max SummaryReport'!A$1:J$13,8,FALSE)*3</f>
+        <v>1428</v>
+      </c>
+      <c r="I27" s="60">
         <f t="shared" si="2"/>
-        <v>1350</v>
-      </c>
-      <c r="H27" s="59">
-        <f>SummaryReport!H23</f>
-        <v>1666</v>
-      </c>
-      <c r="I27" s="60">
-        <f t="shared" si="3"/>
-        <v>0.18967587034813926</v>
+        <v>4.3843624406284532E-3</v>
       </c>
       <c r="S27" s="63"/>
     </row>
     <row r="28" spans="5:19">
-      <c r="E28" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="54" t="s">
-        <v>83</v>
+      <c r="E28" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A40,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Оплата билета</v>
+      </c>
+      <c r="F28" s="54" t="str">
+        <f>VLOOKUP(E28,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>paymentDetails</v>
       </c>
       <c r="G28" s="55">
+        <f>VLOOKUP(E28,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>900</v>
+      </c>
+      <c r="H28" s="59">
+        <f>VLOOKUP(F28,'Max SummaryReport'!A$1:J$13,8,FALSE)*3</f>
+        <v>900</v>
+      </c>
+      <c r="I28" s="60">
         <f t="shared" si="2"/>
-        <v>2600</v>
-      </c>
-      <c r="H28" s="59">
-        <f>SummaryReport!H24</f>
-        <v>3109</v>
-      </c>
-      <c r="I28" s="60">
-        <f t="shared" si="3"/>
-        <v>0.16371823737536184</v>
+        <v>0</v>
       </c>
       <c r="S28" s="63"/>
     </row>
     <row r="29" spans="5:19">
-      <c r="E29" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="54" t="s">
-        <v>20</v>
+      <c r="E29" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A41,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Просмотр квитанций</v>
+      </c>
+      <c r="F29" s="54" t="str">
+        <f>VLOOKUP(E29,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>clickItinerary</v>
       </c>
       <c r="G29" s="55">
+        <f>VLOOKUP(E29,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>1463.6363636363637</v>
+      </c>
+      <c r="H29" s="59">
+        <f>VLOOKUP(F29,'Max SummaryReport'!A$1:J$13,8,FALSE)*3</f>
+        <v>1467</v>
+      </c>
+      <c r="I29" s="60">
         <f t="shared" si="2"/>
-        <v>2110</v>
-      </c>
-      <c r="H29" s="59">
-        <f>SummaryReport!H25</f>
-        <v>2558</v>
-      </c>
-      <c r="I29" s="60">
-        <f t="shared" si="3"/>
-        <v>0.17513682564503519</v>
+        <v>2.2928673235420582E-3</v>
       </c>
       <c r="S29" s="63"/>
     </row>
     <row r="30" spans="5:19">
-      <c r="E30" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="54" t="s">
-        <v>21</v>
+      <c r="E30" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A42,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v xml:space="preserve">Отмена бронирования </v>
+      </c>
+      <c r="F30" s="54" t="str">
+        <f>VLOOKUP(E30,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>deleteTicket</v>
       </c>
       <c r="G30" s="55">
+        <f>VLOOKUP(E30,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>363.63636363636363</v>
+      </c>
+      <c r="H30" s="59">
+        <f>VLOOKUP(F30,'Max SummaryReport'!A$1:J$13,8,FALSE)*3</f>
+        <v>360</v>
+      </c>
+      <c r="I30" s="60">
         <f t="shared" si="2"/>
-        <v>1615</v>
-      </c>
-      <c r="H30" s="59">
-        <f>SummaryReport!H26</f>
-        <v>1827</v>
-      </c>
-      <c r="I30" s="60">
-        <f t="shared" si="3"/>
-        <v>0.11603721948549539</v>
+        <v>-1.0101010101010166E-2</v>
       </c>
       <c r="S30" s="63"/>
     </row>
     <row r="31" spans="5:19">
-      <c r="E31" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="54" t="s">
-        <v>75</v>
+      <c r="E31" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A43,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Выход из системы</v>
+      </c>
+      <c r="F31" s="54" t="str">
+        <f>VLOOKUP(E31,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>logout</v>
       </c>
       <c r="G31" s="55">
+        <f>VLOOKUP(E31,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>1563.1578947368421</v>
+      </c>
+      <c r="H31" s="59">
+        <f>VLOOKUP(F31,'Max SummaryReport'!A$1:J$13,8,FALSE)*3</f>
+        <v>1560</v>
+      </c>
+      <c r="I31" s="60">
         <f t="shared" si="2"/>
-        <v>875</v>
-      </c>
-      <c r="H31" s="59">
-        <f>SummaryReport!H27</f>
-        <v>1052</v>
-      </c>
-      <c r="I31" s="60">
-        <f t="shared" si="3"/>
-        <v>0.16825095057034223</v>
+        <v>-2.0242914979757831E-3</v>
       </c>
       <c r="S31" s="63"/>
     </row>
     <row r="32" spans="5:19">
-      <c r="E32" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="54" t="s">
-        <v>84</v>
+      <c r="E32" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A44,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Переход на страницу регистрации</v>
+      </c>
+      <c r="F32" s="54" t="str">
+        <f>VLOOKUP(E32,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>clickToRegProfile</v>
       </c>
       <c r="G32" s="55">
+        <f>VLOOKUP(E32,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>473.68421052631584</v>
+      </c>
+      <c r="H32" s="59">
+        <f>VLOOKUP(F32,'Max SummaryReport'!A$1:J$13,8,FALSE)*3</f>
+        <v>471</v>
+      </c>
+      <c r="I32" s="60">
         <f t="shared" si="2"/>
-        <v>485</v>
-      </c>
-      <c r="H32" s="59">
-        <f>SummaryReport!H28</f>
-        <v>551</v>
-      </c>
-      <c r="I32" s="60">
-        <f t="shared" si="3"/>
-        <v>0.11978221415607981</v>
+        <v>-5.6989607777406803E-3</v>
       </c>
       <c r="S32" s="63"/>
     </row>
     <row r="33" spans="5:19">
-      <c r="E33" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="54" t="s">
-        <v>85</v>
+      <c r="E33" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A45,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Заполнение полей регистарции</v>
+      </c>
+      <c r="F33" s="54" t="str">
+        <f>VLOOKUP(E33,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>regProfile</v>
       </c>
       <c r="G33" s="55">
+        <f>VLOOKUP(E33,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>473.68421052631584</v>
+      </c>
+      <c r="H33" s="59">
+        <f>VLOOKUP(F33,'Max SummaryReport'!A$1:J$13,8,FALSE)*3</f>
+        <v>471</v>
+      </c>
+      <c r="I33" s="60">
         <f t="shared" si="2"/>
-        <v>485</v>
-      </c>
-      <c r="H33" s="59">
-        <f>SummaryReport!H29</f>
-        <v>551</v>
-      </c>
-      <c r="I33" s="60">
-        <f t="shared" si="3"/>
-        <v>0.11978221415607981</v>
+        <v>-5.6989607777406803E-3</v>
       </c>
       <c r="S33" s="63"/>
     </row>
     <row r="34" spans="5:19">
-      <c r="E34" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="54" t="s">
-        <v>73</v>
+      <c r="E34" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A46,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Переход на следуюущий экран после регистарции</v>
+      </c>
+      <c r="F34" s="54" t="str">
+        <f>VLOOKUP(E34,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>saveProfile</v>
       </c>
       <c r="G34" s="55">
+        <f>VLOOKUP(E34,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>473.68421052631584</v>
+      </c>
+      <c r="H34" s="59">
+        <f>VLOOKUP(F34,'Max SummaryReport'!A$1:J$13,8,FALSE)*3</f>
+        <v>471</v>
+      </c>
+      <c r="I34" s="60">
         <f t="shared" si="2"/>
-        <v>1410</v>
-      </c>
-      <c r="H34" s="59">
-        <f>SummaryReport!H30</f>
-        <v>1666</v>
-      </c>
-      <c r="I34" s="60">
-        <f t="shared" si="3"/>
-        <v>0.1536614645858343</v>
+        <v>-5.6989607777406803E-3</v>
       </c>
     </row>
     <row r="35" spans="5:19" ht="15.6">
@@ -6142,20 +4926,20 @@
       <c r="F35" s="58"/>
       <c r="G35" s="64">
         <f>SUM(G23:G34)</f>
-        <v>14705</v>
+        <v>14989.556896193055</v>
       </c>
       <c r="H35" s="64">
         <f>SUM(H23:H34)</f>
-        <v>17556</v>
+        <v>15003</v>
       </c>
       <c r="I35" s="60">
-        <f t="shared" ref="I35" si="4">1-G35/H35</f>
-        <v>0.16239462292093876</v>
+        <f t="shared" ref="I35" si="3">1-G35/H35</f>
+        <v>8.9602771492003352E-4</v>
       </c>
     </row>
     <row r="38" spans="5:19">
       <c r="E38" s="69" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F38" s="69"/>
       <c r="G38" s="69"/>
@@ -6174,261 +4958,297 @@
     </row>
     <row r="40" spans="5:19">
       <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="41" spans="5:19">
-      <c r="E41" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" s="54">
-        <v>280</v>
+      <c r="E41" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A35,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Главная Welcome страница</v>
+      </c>
+      <c r="F41" s="54" t="str">
+        <f>VLOOKUP(E41,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>homePage</v>
+      </c>
+      <c r="G41" s="55">
+        <f>VLOOKUP(E41,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>2648.533388807989</v>
       </c>
       <c r="H41" s="59">
-        <f>SummaryReport!H35</f>
-        <v>288</v>
+        <f>VLOOKUP('Соответствие профилю'!F6,'Max Performance SummaryReport'!A$1:J$13,8,FALSE)</f>
+        <v>2614</v>
       </c>
       <c r="I41" s="61">
-        <f t="shared" ref="I41:I52" si="5">1-G41/H41</f>
-        <v>2.777777777777779E-2</v>
+        <f t="shared" ref="I41:I52" si="4">1-G41/H41</f>
+        <v>-1.3210936804892492E-2</v>
       </c>
     </row>
     <row r="42" spans="5:19">
-      <c r="E42" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="G42" s="54">
-        <v>305</v>
+      <c r="E42" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A36,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Вход в систему</v>
+      </c>
+      <c r="F42" s="54" t="str">
+        <f>VLOOKUP(E42,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>login</v>
+      </c>
+      <c r="G42" s="55">
+        <f>VLOOKUP(E42,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>2174.8491782816727</v>
       </c>
       <c r="H42" s="59">
-        <f>SummaryReport!H36</f>
-        <v>318</v>
+        <f>VLOOKUP('Соответствие профилю'!F7,'Max Performance SummaryReport'!A$1:J$13,8,FALSE)</f>
+        <v>2148</v>
       </c>
       <c r="I42" s="61">
-        <f t="shared" si="5"/>
-        <v>4.0880503144654079E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.2499617449568401E-2</v>
       </c>
     </row>
     <row r="43" spans="5:19">
-      <c r="E43" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="G43" s="54">
-        <v>97</v>
+      <c r="E43" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A37,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Переход на страницу поиска билетов</v>
+      </c>
+      <c r="F43" s="54" t="str">
+        <f>VLOOKUP(E43,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>clickToFlights</v>
+      </c>
+      <c r="G43" s="55">
+        <f>VLOOKUP(E43,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>1611.2128146453092</v>
       </c>
       <c r="H43" s="59">
-        <f>SummaryReport!H37</f>
-        <v>93</v>
+        <f>VLOOKUP('Соответствие профилю'!F8,'Max Performance SummaryReport'!A$1:J$13,8,FALSE)</f>
+        <v>1590</v>
       </c>
       <c r="I43" s="61">
-        <f t="shared" si="5"/>
-        <v>-4.3010752688172005E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.3341392858684964E-2</v>
       </c>
     </row>
     <row r="44" spans="5:19">
-      <c r="E44" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="G44" s="54">
-        <v>73</v>
+      <c r="E44" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A38,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v xml:space="preserve">Заполнение полей для поиска билета </v>
+      </c>
+      <c r="F44" s="54" t="str">
+        <f>VLOOKUP(E44,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>searchTicket</v>
+      </c>
+      <c r="G44" s="55">
+        <f>VLOOKUP(E44,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>1421.7391304347825</v>
       </c>
       <c r="H44" s="59">
-        <f>SummaryReport!H38</f>
-        <v>71</v>
+        <f>VLOOKUP('Соответствие профилю'!F9,'Max Performance SummaryReport'!A$1:J$13,8,FALSE)</f>
+        <v>1402</v>
       </c>
       <c r="I44" s="61">
-        <f t="shared" si="5"/>
-        <v>-2.8169014084507005E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.4079265645351224E-2</v>
       </c>
     </row>
     <row r="45" spans="5:19">
-      <c r="E45" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="F45" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="G45" s="54">
-        <v>270</v>
+      <c r="E45" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A39,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v xml:space="preserve">Выбор рейса из найденных </v>
+      </c>
+      <c r="F45" s="54" t="str">
+        <f>VLOOKUP(E45,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>departureTime</v>
+      </c>
+      <c r="G45" s="55">
+        <f>VLOOKUP(E45,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>1421.7391304347825</v>
       </c>
       <c r="H45" s="59">
-        <f>SummaryReport!H39</f>
-        <v>280</v>
+        <f>VLOOKUP('Соответствие профилю'!F10,'Max Performance SummaryReport'!A$1:J$13,8,FALSE)</f>
+        <v>1402</v>
       </c>
       <c r="I45" s="61">
-        <f t="shared" si="5"/>
-        <v>3.5714285714285698E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.4079265645351224E-2</v>
       </c>
     </row>
     <row r="46" spans="5:19">
-      <c r="E46" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" s="54">
-        <v>520</v>
+      <c r="E46" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A40,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Оплата билета</v>
+      </c>
+      <c r="F46" s="54" t="str">
+        <f>VLOOKUP(E46,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>paymentDetails</v>
+      </c>
+      <c r="G46" s="55">
+        <f>VLOOKUP(E46,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>900</v>
       </c>
       <c r="H46" s="59">
-        <f>SummaryReport!H40</f>
-        <v>523</v>
+        <f>VLOOKUP('Соответствие профилю'!F11,'Max Performance SummaryReport'!A$1:J$13,8,FALSE)</f>
+        <v>887</v>
       </c>
       <c r="I46" s="61">
-        <f t="shared" si="5"/>
-        <v>5.7361376673039643E-3</v>
+        <f t="shared" si="4"/>
+        <v>-1.4656144306651742E-2</v>
       </c>
     </row>
     <row r="47" spans="5:19">
-      <c r="E47" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="F47" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="54">
-        <v>422</v>
+      <c r="E47" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A41,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Просмотр квитанций</v>
+      </c>
+      <c r="F47" s="54" t="str">
+        <f>VLOOKUP(E47,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>clickItinerary</v>
+      </c>
+      <c r="G47" s="55">
+        <f>VLOOKUP(E47,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>1463.6363636363637</v>
       </c>
       <c r="H47" s="59">
-        <f>SummaryReport!H41</f>
-        <v>430</v>
+        <f>VLOOKUP('Соответствие профилю'!F12,'Max Performance SummaryReport'!A$1:J$13,8,FALSE)</f>
+        <v>1444</v>
       </c>
       <c r="I47" s="61">
-        <f t="shared" si="5"/>
-        <v>1.8604651162790753E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.3598589775875247E-2</v>
       </c>
     </row>
     <row r="48" spans="5:19">
-      <c r="E48" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="54">
-        <v>323</v>
+      <c r="E48" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A42,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v xml:space="preserve">Отмена бронирования </v>
+      </c>
+      <c r="F48" s="54" t="str">
+        <f>VLOOKUP(E48,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>deleteTicket</v>
+      </c>
+      <c r="G48" s="55">
+        <f>VLOOKUP(E48,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>363.63636363636363</v>
       </c>
       <c r="H48" s="59">
-        <f>SummaryReport!H42</f>
-        <v>307</v>
+        <f>VLOOKUP('Соответствие профилю'!F13,'Max Performance SummaryReport'!A$1:J$13,8,FALSE)</f>
+        <v>353</v>
       </c>
       <c r="I48" s="61">
-        <f t="shared" si="5"/>
-        <v>-5.2117263843648232E-2</v>
+        <f t="shared" si="4"/>
+        <v>-3.0131341746072682E-2</v>
       </c>
     </row>
     <row r="49" spans="5:9">
-      <c r="E49" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="G49" s="54">
-        <v>175</v>
+      <c r="E49" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A43,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Выход из системы</v>
+      </c>
+      <c r="F49" s="54" t="str">
+        <f>VLOOKUP(E49,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>logout</v>
+      </c>
+      <c r="G49" s="55">
+        <f>VLOOKUP(E49,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>1563.1578947368421</v>
       </c>
       <c r="H49" s="59">
-        <f>SummaryReport!H43</f>
-        <v>176</v>
+        <f>VLOOKUP('Соответствие профилю'!F14,'Max Performance SummaryReport'!A$1:J$13,8,FALSE)</f>
+        <v>1541</v>
       </c>
       <c r="I49" s="61">
-        <f t="shared" si="5"/>
-        <v>5.6818181818182323E-3</v>
+        <f t="shared" si="4"/>
+        <v>-1.4378906383414769E-2</v>
       </c>
     </row>
     <row r="50" spans="5:9">
-      <c r="E50" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="G50" s="54">
-        <v>97</v>
+      <c r="E50" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A44,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Переход на страницу регистрации</v>
+      </c>
+      <c r="F50" s="54" t="str">
+        <f>VLOOKUP(E50,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>clickToRegProfile</v>
+      </c>
+      <c r="G50" s="55">
+        <f>VLOOKUP(E50,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>473.68421052631584</v>
       </c>
       <c r="H50" s="59">
-        <f>SummaryReport!H44</f>
-        <v>93</v>
+        <f>VLOOKUP('Соответствие профилю'!F15,'Max Performance SummaryReport'!A$1:J$13,8,FALSE)</f>
+        <v>466</v>
       </c>
       <c r="I50" s="61">
-        <f t="shared" si="5"/>
-        <v>-4.3010752688172005E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.6489722159475972E-2</v>
       </c>
     </row>
     <row r="51" spans="5:9">
-      <c r="E51" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="G51" s="54">
-        <v>97</v>
+      <c r="E51" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A45,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Заполнение полей регистарции</v>
+      </c>
+      <c r="F51" s="54" t="str">
+        <f>VLOOKUP(E51,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>regProfile</v>
+      </c>
+      <c r="G51" s="55">
+        <f>VLOOKUP(E51,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>473.68421052631584</v>
       </c>
       <c r="H51" s="59">
-        <f>SummaryReport!H45</f>
-        <v>93</v>
+        <f>VLOOKUP('Соответствие профилю'!F16,'Max Performance SummaryReport'!A$1:J$13,8,FALSE)</f>
+        <v>466</v>
       </c>
       <c r="I51" s="61">
-        <f t="shared" si="5"/>
-        <v>-4.3010752688172005E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.6489722159475972E-2</v>
       </c>
     </row>
     <row r="52" spans="5:9">
-      <c r="E52" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" s="54">
-        <v>282</v>
+      <c r="E52" s="54" t="str">
+        <f>VLOOKUP('Автоматизированный расчет'!A46,Соответствие!A$1:B$13,1,FALSE)</f>
+        <v>Переход на следуюущий экран после регистарции</v>
+      </c>
+      <c r="F52" s="54" t="str">
+        <f>VLOOKUP(E52,Соответствие!A$1:B$13,2,FALSE)</f>
+        <v>saveProfile</v>
+      </c>
+      <c r="G52" s="55">
+        <f>VLOOKUP(E52,'Автоматизированный расчет'!A$34:C$46,3,FALSE)*5</f>
+        <v>473.68421052631584</v>
       </c>
       <c r="H52" s="59">
-        <f>SummaryReport!H46</f>
-        <v>280</v>
+        <f>VLOOKUP('Соответствие профилю'!F17,'Max Performance SummaryReport'!A$1:J$13,8,FALSE)</f>
+        <v>466</v>
       </c>
       <c r="I52" s="62">
-        <f t="shared" si="5"/>
-        <v>-7.1428571428571175E-3</v>
+        <f t="shared" si="4"/>
+        <v>-1.6489722159475972E-2</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="G53" s="55">
         <f>SUM(G41:G52)</f>
-        <v>2941</v>
+        <v>14989.556896193055</v>
       </c>
       <c r="H53" s="55">
         <f>SUM(H41:H52)</f>
-        <v>2952</v>
+        <v>14779</v>
       </c>
       <c r="I53" s="61">
-        <f t="shared" ref="I53" si="6">1-G53/H53</f>
-        <v>3.7262872628726074E-3</v>
+        <f t="shared" ref="I53" si="5">1-G53/H53</f>
+        <v>-1.4247032694570283E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6443,4 +5263,1332 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="65">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="D3" s="65">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="E3" s="65">
+        <v>1.76</v>
+      </c>
+      <c r="F3" s="65">
+        <v>0.376</v>
+      </c>
+      <c r="G3" s="65">
+        <v>1.43</v>
+      </c>
+      <c r="H3" s="65">
+        <v>97</v>
+      </c>
+      <c r="I3" s="65">
+        <v>0</v>
+      </c>
+      <c r="J3" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="65">
+        <v>0.151</v>
+      </c>
+      <c r="D4" s="65">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E4" s="65">
+        <v>0.48</v>
+      </c>
+      <c r="F4" s="65">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G4" s="65">
+        <v>0.193</v>
+      </c>
+      <c r="H4" s="65">
+        <v>107</v>
+      </c>
+      <c r="I4" s="65">
+        <v>0</v>
+      </c>
+      <c r="J4" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="65">
+        <v>0.123</v>
+      </c>
+      <c r="D5" s="65">
+        <v>0.155</v>
+      </c>
+      <c r="E5" s="65">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="F5" s="65">
+        <v>0.03</v>
+      </c>
+      <c r="G5" s="65">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="H5" s="65">
+        <v>31</v>
+      </c>
+      <c r="I5" s="65">
+        <v>0</v>
+      </c>
+      <c r="J5" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="65">
+        <v>0.53</v>
+      </c>
+      <c r="D6" s="65">
+        <v>0.625</v>
+      </c>
+      <c r="E6" s="65">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="F6" s="65">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G6" s="65">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="H6" s="65">
+        <v>24</v>
+      </c>
+      <c r="I6" s="65">
+        <v>0</v>
+      </c>
+      <c r="J6" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="65">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D7" s="65">
+        <v>0.151</v>
+      </c>
+      <c r="E7" s="65">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="F7" s="65">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G7" s="65">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H7" s="65">
+        <v>95</v>
+      </c>
+      <c r="I7" s="65">
+        <v>0</v>
+      </c>
+      <c r="J7" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="65">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D8" s="65">
+        <v>0.159</v>
+      </c>
+      <c r="E8" s="65">
+        <v>0.32</v>
+      </c>
+      <c r="F8" s="65">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G8" s="65">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="H8" s="65">
+        <v>175</v>
+      </c>
+      <c r="I8" s="65">
+        <v>0</v>
+      </c>
+      <c r="J8" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="65">
+        <v>0.19</v>
+      </c>
+      <c r="D9" s="65">
+        <v>0.223</v>
+      </c>
+      <c r="E9" s="65">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F9" s="65">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G9" s="65">
+        <v>0.24</v>
+      </c>
+      <c r="H9" s="65">
+        <v>144</v>
+      </c>
+      <c r="I9" s="65">
+        <v>0</v>
+      </c>
+      <c r="J9" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="65">
+        <v>0.124</v>
+      </c>
+      <c r="D10" s="65">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E10" s="65">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="F10" s="65">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G10" s="65">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="H10" s="65">
+        <v>103</v>
+      </c>
+      <c r="I10" s="65">
+        <v>0</v>
+      </c>
+      <c r="J10" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="65">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D11" s="65">
+        <v>0.152</v>
+      </c>
+      <c r="E11" s="65">
+        <v>0.17</v>
+      </c>
+      <c r="F11" s="65">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G11" s="65">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="H11" s="65">
+        <v>60</v>
+      </c>
+      <c r="I11" s="65">
+        <v>0</v>
+      </c>
+      <c r="J11" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="65">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D12" s="65">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="E12" s="65">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="F12" s="65">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G12" s="65">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="H12" s="65">
+        <v>31</v>
+      </c>
+      <c r="I12" s="65">
+        <v>0</v>
+      </c>
+      <c r="J12" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="65">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="D13" s="65">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="E13" s="65">
+        <v>0.253</v>
+      </c>
+      <c r="F13" s="65">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G13" s="65">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="H13" s="65">
+        <v>31</v>
+      </c>
+      <c r="I13" s="65">
+        <v>0</v>
+      </c>
+      <c r="J13" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="65">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D14" s="65">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E14" s="65">
+        <v>0.115</v>
+      </c>
+      <c r="F14" s="65">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G14" s="65">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="65">
+        <v>95</v>
+      </c>
+      <c r="I14" s="65">
+        <v>0</v>
+      </c>
+      <c r="J14" s="65">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D2">
+        <v>1.405</v>
+      </c>
+      <c r="E2">
+        <v>5.9569999999999999</v>
+      </c>
+      <c r="F2">
+        <v>1.2509999999999999</v>
+      </c>
+      <c r="G2">
+        <v>2.5990000000000002</v>
+      </c>
+      <c r="H2">
+        <v>489</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3">
+        <v>0.16</v>
+      </c>
+      <c r="D3">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="F3">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="H3">
+        <v>538</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4">
+        <v>0.127</v>
+      </c>
+      <c r="D4">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="F4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.214</v>
+      </c>
+      <c r="H4">
+        <v>157</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>0.08</v>
+      </c>
+      <c r="D5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="E5">
+        <v>5.6559999999999997</v>
+      </c>
+      <c r="F5">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="G5">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="H5">
+        <v>120</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>0.123</v>
+      </c>
+      <c r="D6">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.251</v>
+      </c>
+      <c r="F6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="H6">
+        <v>476</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="F7">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="H7">
+        <v>884</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="E8">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="F8">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="H8">
+        <v>727</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9">
+        <v>0.127</v>
+      </c>
+      <c r="D9">
+        <v>0.19</v>
+      </c>
+      <c r="E9">
+        <v>0.437</v>
+      </c>
+      <c r="F9">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.223</v>
+      </c>
+      <c r="H9">
+        <v>520</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.183</v>
+      </c>
+      <c r="E10">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="F10">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.22</v>
+      </c>
+      <c r="H10">
+        <v>300</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11">
+        <v>0.106</v>
+      </c>
+      <c r="D11">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F11">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="H11">
+        <v>157</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E12">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="F12">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="H12">
+        <v>157</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F13">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H13">
+        <v>476</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D2">
+        <v>1.752</v>
+      </c>
+      <c r="E2">
+        <v>7.4960000000000004</v>
+      </c>
+      <c r="F2">
+        <v>1.446</v>
+      </c>
+      <c r="G2">
+        <v>4.0170000000000003</v>
+      </c>
+      <c r="H2">
+        <v>1444</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3">
+        <v>0.156</v>
+      </c>
+      <c r="D3">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="E3">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="F3">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.312</v>
+      </c>
+      <c r="H3">
+        <v>1590</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4">
+        <v>0.126</v>
+      </c>
+      <c r="D4">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="F4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="H4">
+        <v>466</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.488</v>
+      </c>
+      <c r="E5">
+        <v>5.7</v>
+      </c>
+      <c r="F5">
+        <v>0.998</v>
+      </c>
+      <c r="G5">
+        <v>2.681</v>
+      </c>
+      <c r="H5">
+        <v>353</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>0.109</v>
+      </c>
+      <c r="D6">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="H6">
+        <v>1402</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.214</v>
+      </c>
+      <c r="E7">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="F7">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="H7">
+        <v>2614</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8">
+        <v>0.187</v>
+      </c>
+      <c r="D8">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="E8">
+        <v>1.5309999999999999</v>
+      </c>
+      <c r="F8">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="H8">
+        <v>2148</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9">
+        <v>0.125</v>
+      </c>
+      <c r="D9">
+        <v>0.184</v>
+      </c>
+      <c r="E9">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="F9">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="H9">
+        <v>1541</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10">
+        <v>0.125</v>
+      </c>
+      <c r="D10">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="F10">
+        <v>0.05</v>
+      </c>
+      <c r="G10">
+        <v>0.219</v>
+      </c>
+      <c r="H10">
+        <v>887</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11">
+        <v>0.104</v>
+      </c>
+      <c r="D11">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="F11">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="H11">
+        <v>466</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="E12">
+        <v>1.135</v>
+      </c>
+      <c r="F12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.36</v>
+      </c>
+      <c r="H12">
+        <v>466</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.88</v>
+      </c>
+      <c r="F13">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.15</v>
+      </c>
+      <c r="H13">
+        <v>1402</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>